--- a/2025-SF-PRICING Parts & Display List - In Process.xlsx
+++ b/2025-SF-PRICING Parts & Display List - In Process.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://waldoch-my.sharepoint.com/personal/aslater_waldoch_com/Documents/Desktop/Web_Development/Shopify/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{DEFFADDD-A4C9-476B-8D34-3C7091869CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5AAFB9-5EC8-434F-8058-4F22D2945E43}"/>
+  <xr:revisionPtr revIDLastSave="789" documentId="13_ncr:1_{DEFFADDD-A4C9-476B-8D34-3C7091869CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B09D69A-244C-44FC-B5D5-230A76B3E589}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{7BF50C4B-D748-462E-ACD1-3F6656571020}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7BF50C4B-D748-462E-ACD1-3F6656571020}"/>
   </bookViews>
   <sheets>
     <sheet name="Bedliners" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="980">
   <si>
     <t>LABOR HOURS IS THE TIME IT TAKES AN AVERAGE TECHNICIAN TO INSTALL THE CORRESPONDING ACCESSORY ON AVERAGE</t>
   </si>
@@ -2532,9 +2532,6 @@
     <t xml:space="preserve">ACCESS TONNOSPORT </t>
   </si>
   <si>
-    <t>ACESS LOMAX HARD FOLDING TONNEAU COVER</t>
-  </si>
-  <si>
     <t>Protecting what's yours, LOMAX® Folding Hard Covers utilize strength with industry changing style. The ultra low profile design merges seamlessly with your pickup for an overall irresistible appearance. Easily transport large items by simply pulling tab to release latches and remove cover. From the water-shedding design to the automatic locking system, LOMAX® FoProtecting what's yours, LOMAX® Folding Hard Covers utilize strength with industry changing style. The ultra low profile design merges seamlessly with your pickup for an overall irresistible appearance.</t>
   </si>
   <si>
@@ -3137,6 +3134,145 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>ACCESS LOMAX HARD FOLDING TONNEAU COVER</t>
+  </si>
+  <si>
+    <t>? Price =</t>
+  </si>
+  <si>
+    <t>None for 1199.99</t>
+  </si>
+  <si>
+    <t>Have for 1399.99</t>
+  </si>
+  <si>
+    <t>lowest price is 3999.98</t>
+  </si>
+  <si>
+    <t>3599.98 No images</t>
+  </si>
+  <si>
+    <t>TS10033B</t>
+  </si>
+  <si>
+    <t>ShopifyIsWrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70101-retrax = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">448324 = $1299.99 
+449327TS = $2570.38
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80324 = $2799.98 
+80337 = $1479.99
+80339 = 1399.99
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowest price is 3999.98 </t>
+  </si>
+  <si>
+    <t>Hard to find</t>
+  </si>
+  <si>
+    <t>B3040039 = $1200</t>
+  </si>
+  <si>
+    <t>ILC19CCMPK = 519.95</t>
+  </si>
+  <si>
+    <t>Heavy Duty Bed Mat</t>
+  </si>
+  <si>
+    <t>With the perfect balance of strength and softness, our rubberized DuraGrip HD(TM) material delivers no-slip, no-slide, driving confidence no matter what the road brings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found in NetSuite --
+Not Found in Shopify
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many found - Pricing not exact
+39226 = $870.28
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many listed as Fuel Tank Door Cover 401918
+&amp; Fender Trim 497006
+</t>
+  </si>
+  <si>
+    <t>Listed as Fender Trim 97290BP</t>
+  </si>
+  <si>
+    <t>Highest Base Price Found is  93010-60 = $441.35</t>
+  </si>
+  <si>
+    <t>Only one found
+15022 = $239.99</t>
+  </si>
+  <si>
+    <t>SC101D = $239.99
+SC107D = 479.98</t>
+  </si>
+  <si>
+    <t>B-FR-R117-STD</t>
+  </si>
+  <si>
+    <t>B-FR-R117-STD = $3200.00</t>
+  </si>
+  <si>
+    <t>FS17-V4152-1 = $2749.99
+CS07-D2051-1 = 2379.99</t>
+  </si>
+  <si>
+    <t>Can't Find</t>
+  </si>
+  <si>
+    <t>Pricing issue</t>
+  </si>
+  <si>
+    <t>13170 = $151.67
+Not in Shopify</t>
+  </si>
+  <si>
+    <t>62298 = $928.95
+Not in Shopify/Hard to find</t>
+  </si>
+  <si>
+    <t>9201948-06 = $329.56
+9201960-04 = $375.99
+9202060-10 = $385.40</t>
+  </si>
+  <si>
+    <t>TS10033C</t>
+  </si>
+  <si>
+    <t>TS10048BB
+TS10047BB</t>
+  </si>
+  <si>
+    <t>TS10048C</t>
+  </si>
+  <si>
+    <t>TS20037B</t>
+  </si>
+  <si>
+    <t>Can't find</t>
+  </si>
+  <si>
+    <t>TS20066BMP</t>
+  </si>
+  <si>
+    <t>TS10049C</t>
+  </si>
+  <si>
+    <t>Not in shopify</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3286,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="121">
+  <fonts count="125">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3978,8 +4114,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4075,8 +4236,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -4878,6 +5063,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4886,7 +5086,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="508">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6072,6 +6272,13 @@
     <xf numFmtId="6" fontId="100" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="120" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6345,12 +6552,43 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="20" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -6795,8 +7033,8 @@
   </sheetPr>
   <dimension ref="A1:Z946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="24.6"/>
@@ -6819,26 +7057,28 @@
     <col min="16" max="16" width="9.21875" style="382"/>
     <col min="17" max="18" width="0" style="248" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="0" style="249" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="249"/>
-    <col min="21" max="26" width="10.77734375" style="250" customWidth="1"/>
+    <col min="20" max="20" width="21.5546875" style="249" customWidth="1"/>
+    <col min="21" max="21" width="23.109375" style="250" customWidth="1"/>
+    <col min="22" max="22" width="36.109375" style="250" customWidth="1"/>
+    <col min="23" max="26" width="10.77734375" style="250" customWidth="1"/>
     <col min="27" max="16384" width="9.21875" style="249"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="239" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="416" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1" s="416"/>
-      <c r="C1" s="416"/>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="416"/>
-      <c r="K1" s="416"/>
-      <c r="L1" s="416"/>
+      <c r="A1" s="419" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="419"/>
+      <c r="C1" s="419"/>
+      <c r="D1" s="419"/>
+      <c r="E1" s="419"/>
+      <c r="F1" s="419"/>
+      <c r="G1" s="419"/>
+      <c r="H1" s="419"/>
+      <c r="I1" s="419"/>
+      <c r="J1" s="419"/>
+      <c r="K1" s="419"/>
+      <c r="L1" s="419"/>
       <c r="M1" s="233"/>
       <c r="N1" s="236"/>
       <c r="O1" s="237"/>
@@ -6853,20 +7093,20 @@
       <c r="Z1" s="170"/>
     </row>
     <row r="2" spans="1:26" s="244" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="417" t="s">
+      <c r="A2" s="420" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="417"/>
-      <c r="C2" s="417"/>
-      <c r="D2" s="417"/>
-      <c r="E2" s="417"/>
-      <c r="F2" s="417"/>
-      <c r="G2" s="417"/>
-      <c r="H2" s="417"/>
-      <c r="I2" s="417"/>
-      <c r="J2" s="417"/>
-      <c r="K2" s="417"/>
-      <c r="L2" s="417"/>
+      <c r="B2" s="420"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="420"/>
+      <c r="E2" s="420"/>
+      <c r="F2" s="420"/>
+      <c r="G2" s="420"/>
+      <c r="H2" s="420"/>
+      <c r="I2" s="420"/>
+      <c r="J2" s="420"/>
+      <c r="K2" s="420"/>
+      <c r="L2" s="420"/>
       <c r="M2" s="240"/>
       <c r="N2" s="236"/>
       <c r="O2" s="237"/>
@@ -6881,84 +7121,84 @@
       <c r="Z2" s="158"/>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1">
-      <c r="A3" s="414" t="s">
+      <c r="A3" s="417" t="s">
         <v>731</v>
       </c>
-      <c r="B3" s="414"/>
-      <c r="C3" s="414"/>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="414"/>
-      <c r="G3" s="414"/>
-      <c r="H3" s="414"/>
-      <c r="I3" s="414"/>
-      <c r="J3" s="414"/>
-      <c r="K3" s="414"/>
-      <c r="L3" s="414"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="417"/>
+      <c r="G3" s="417"/>
+      <c r="H3" s="417"/>
+      <c r="I3" s="417"/>
+      <c r="J3" s="417"/>
+      <c r="K3" s="417"/>
+      <c r="L3" s="417"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="417" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="414"/>
-      <c r="C4" s="414"/>
-      <c r="D4" s="414"/>
-      <c r="E4" s="414"/>
-      <c r="F4" s="414"/>
-      <c r="G4" s="414"/>
-      <c r="H4" s="414"/>
-      <c r="I4" s="414"/>
-      <c r="J4" s="414"/>
-      <c r="K4" s="414"/>
-      <c r="L4" s="414"/>
+      <c r="B4" s="417"/>
+      <c r="C4" s="417"/>
+      <c r="D4" s="417"/>
+      <c r="E4" s="417"/>
+      <c r="F4" s="417"/>
+      <c r="G4" s="417"/>
+      <c r="H4" s="417"/>
+      <c r="I4" s="417"/>
+      <c r="J4" s="417"/>
+      <c r="K4" s="417"/>
+      <c r="L4" s="417"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A5" s="414" t="s">
+      <c r="A5" s="417" t="s">
         <v>358</v>
       </c>
-      <c r="B5" s="414"/>
-      <c r="C5" s="414"/>
-      <c r="D5" s="414"/>
-      <c r="E5" s="414"/>
-      <c r="F5" s="414"/>
-      <c r="G5" s="414"/>
-      <c r="H5" s="414"/>
-      <c r="I5" s="414"/>
-      <c r="J5" s="414"/>
-      <c r="K5" s="414"/>
-      <c r="L5" s="414"/>
+      <c r="B5" s="417"/>
+      <c r="C5" s="417"/>
+      <c r="D5" s="417"/>
+      <c r="E5" s="417"/>
+      <c r="F5" s="417"/>
+      <c r="G5" s="417"/>
+      <c r="H5" s="417"/>
+      <c r="I5" s="417"/>
+      <c r="J5" s="417"/>
+      <c r="K5" s="417"/>
+      <c r="L5" s="417"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A6" s="414" t="s">
+      <c r="A6" s="417" t="s">
         <v>359</v>
       </c>
-      <c r="B6" s="414"/>
-      <c r="C6" s="414"/>
-      <c r="D6" s="414"/>
-      <c r="E6" s="414"/>
-      <c r="F6" s="414"/>
-      <c r="G6" s="414"/>
-      <c r="H6" s="414"/>
-      <c r="I6" s="414"/>
-      <c r="J6" s="414"/>
-      <c r="K6" s="414"/>
-      <c r="L6" s="414"/>
+      <c r="B6" s="417"/>
+      <c r="C6" s="417"/>
+      <c r="D6" s="417"/>
+      <c r="E6" s="417"/>
+      <c r="F6" s="417"/>
+      <c r="G6" s="417"/>
+      <c r="H6" s="417"/>
+      <c r="I6" s="417"/>
+      <c r="J6" s="417"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="417"/>
     </row>
     <row r="7" spans="1:26" s="254" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="414" t="s">
+      <c r="A7" s="417" t="s">
         <v>360</v>
       </c>
-      <c r="B7" s="414"/>
-      <c r="C7" s="414"/>
-      <c r="D7" s="414"/>
-      <c r="E7" s="414"/>
-      <c r="F7" s="414"/>
-      <c r="G7" s="414"/>
-      <c r="H7" s="414"/>
-      <c r="I7" s="414"/>
-      <c r="J7" s="414"/>
-      <c r="K7" s="414"/>
-      <c r="L7" s="414"/>
+      <c r="B7" s="417"/>
+      <c r="C7" s="417"/>
+      <c r="D7" s="417"/>
+      <c r="E7" s="417"/>
+      <c r="F7" s="417"/>
+      <c r="G7" s="417"/>
+      <c r="H7" s="417"/>
+      <c r="I7" s="417"/>
+      <c r="J7" s="417"/>
+      <c r="K7" s="417"/>
+      <c r="L7" s="417"/>
       <c r="M7" s="251"/>
       <c r="N7" s="236"/>
       <c r="O7" s="252"/>
@@ -7030,10 +7270,10 @@
         <v>362</v>
       </c>
       <c r="K9" s="134" t="s">
+        <v>795</v>
+      </c>
+      <c r="L9" s="134" t="s">
         <v>796</v>
-      </c>
-      <c r="L9" s="134" t="s">
-        <v>797</v>
       </c>
       <c r="M9" s="133" t="s">
         <v>5</v>
@@ -7048,30 +7288,32 @@
       <c r="Q9" s="136"/>
       <c r="R9" s="136"/>
       <c r="T9" s="137" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
+      <c r="V9" s="138" t="s">
+        <v>947</v>
+      </c>
       <c r="W9" s="139"/>
       <c r="X9" s="139"/>
       <c r="Y9" s="139"/>
       <c r="Z9" s="139"/>
     </row>
     <row r="10" spans="1:26" s="137" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="415" t="s">
-        <v>902</v>
-      </c>
-      <c r="B10" s="415"/>
-      <c r="C10" s="415"/>
-      <c r="D10" s="415"/>
-      <c r="E10" s="415"/>
-      <c r="F10" s="415"/>
-      <c r="G10" s="415"/>
-      <c r="H10" s="415"/>
-      <c r="I10" s="415"/>
-      <c r="J10" s="415"/>
-      <c r="K10" s="415"/>
-      <c r="L10" s="415"/>
+      <c r="A10" s="418" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" s="418"/>
+      <c r="C10" s="418"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="418"/>
+      <c r="F10" s="418"/>
+      <c r="G10" s="418"/>
+      <c r="H10" s="418"/>
+      <c r="I10" s="418"/>
+      <c r="J10" s="418"/>
+      <c r="K10" s="418"/>
+      <c r="L10" s="418"/>
       <c r="M10" s="133"/>
       <c r="N10" s="196"/>
       <c r="O10" s="164"/>
@@ -7086,23 +7328,23 @@
       <c r="Z10" s="139"/>
     </row>
     <row r="11" spans="1:26" s="254" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A11" s="410" t="s">
+      <c r="A11" s="413" t="s">
         <v>446</v>
       </c>
-      <c r="B11" s="410"/>
-      <c r="C11" s="410"/>
-      <c r="D11" s="410"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="410"/>
-      <c r="G11" s="410"/>
-      <c r="H11" s="410"/>
-      <c r="I11" s="410"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="410"/>
-      <c r="L11" s="410"/>
-      <c r="M11" s="410"/>
-      <c r="N11" s="410"/>
-      <c r="O11" s="410"/>
+      <c r="B11" s="413"/>
+      <c r="C11" s="413"/>
+      <c r="D11" s="413"/>
+      <c r="E11" s="413"/>
+      <c r="F11" s="413"/>
+      <c r="G11" s="413"/>
+      <c r="H11" s="413"/>
+      <c r="I11" s="413"/>
+      <c r="J11" s="413"/>
+      <c r="K11" s="413"/>
+      <c r="L11" s="413"/>
+      <c r="M11" s="413"/>
+      <c r="N11" s="413"/>
+      <c r="O11" s="413"/>
       <c r="P11" s="382"/>
       <c r="Q11" s="253"/>
       <c r="R11" s="253"/>
@@ -7114,23 +7356,23 @@
       <c r="Z11" s="129"/>
     </row>
     <row r="12" spans="1:26" s="254" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="409" t="s">
+      <c r="A12" s="412" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="409"/>
-      <c r="C12" s="409"/>
-      <c r="D12" s="409"/>
-      <c r="E12" s="409"/>
-      <c r="F12" s="409"/>
-      <c r="G12" s="409"/>
-      <c r="H12" s="409"/>
-      <c r="I12" s="409"/>
-      <c r="J12" s="409"/>
-      <c r="K12" s="409"/>
-      <c r="L12" s="409"/>
-      <c r="M12" s="409"/>
-      <c r="N12" s="409"/>
-      <c r="O12" s="409"/>
+      <c r="B12" s="412"/>
+      <c r="C12" s="412"/>
+      <c r="D12" s="412"/>
+      <c r="E12" s="412"/>
+      <c r="F12" s="412"/>
+      <c r="G12" s="412"/>
+      <c r="H12" s="412"/>
+      <c r="I12" s="412"/>
+      <c r="J12" s="412"/>
+      <c r="K12" s="412"/>
+      <c r="L12" s="412"/>
+      <c r="M12" s="412"/>
+      <c r="N12" s="412"/>
+      <c r="O12" s="412"/>
       <c r="P12" s="382"/>
       <c r="Q12" s="253"/>
       <c r="R12" s="253"/>
@@ -7141,7 +7383,7 @@
       <c r="Y12" s="129"/>
       <c r="Z12" s="129"/>
     </row>
-    <row r="13" spans="1:26" s="153" customFormat="1" ht="67.5" customHeight="1">
+    <row r="13" spans="1:26" s="153" customFormat="1" ht="67.5" customHeight="1" thickBot="1">
       <c r="A13" s="194" t="s">
         <v>12</v>
       </c>
@@ -7193,7 +7435,7 @@
       <c r="P13" s="382"/>
       <c r="Q13" s="152"/>
       <c r="R13" s="152"/>
-      <c r="T13" s="492"/>
+      <c r="T13" s="408"/>
       <c r="U13" s="145"/>
       <c r="V13" s="145"/>
       <c r="W13" s="256"/>
@@ -7201,7 +7443,7 @@
       <c r="Y13" s="144"/>
       <c r="Z13" s="144"/>
     </row>
-    <row r="14" spans="1:26" s="153" customFormat="1" ht="116.25" customHeight="1">
+    <row r="14" spans="1:26" s="153" customFormat="1" ht="116.25" customHeight="1" thickBot="1">
       <c r="A14" s="194" t="s">
         <v>12</v>
       </c>
@@ -7255,13 +7497,15 @@
       <c r="Q14" s="152"/>
       <c r="R14" s="152"/>
       <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
+      <c r="V14" s="506" t="s">
+        <v>954</v>
+      </c>
       <c r="W14" s="144"/>
       <c r="X14" s="144"/>
       <c r="Y14" s="144"/>
       <c r="Z14" s="144"/>
     </row>
-    <row r="15" spans="1:26" s="153" customFormat="1" ht="62.4">
+    <row r="15" spans="1:26" s="153" customFormat="1" ht="63" thickBot="1">
       <c r="A15" s="194" t="s">
         <v>15</v>
       </c>
@@ -7313,7 +7557,9 @@
       <c r="Q15" s="152"/>
       <c r="R15" s="152"/>
       <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
+      <c r="V15" s="506" t="s">
+        <v>952</v>
+      </c>
       <c r="W15" s="144"/>
       <c r="X15" s="144"/>
       <c r="Y15" s="257"/>
@@ -7371,7 +7617,7 @@
       <c r="Q16" s="152"/>
       <c r="R16" s="152"/>
       <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
+      <c r="V16" s="497"/>
       <c r="W16" s="144"/>
       <c r="X16" s="144"/>
       <c r="Y16" s="257"/>
@@ -7413,7 +7659,7 @@
       <c r="Q17" s="152"/>
       <c r="R17" s="152"/>
       <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
+      <c r="V17" s="497"/>
       <c r="W17" s="144"/>
       <c r="X17" s="144"/>
       <c r="Y17" s="257"/>
@@ -7453,7 +7699,7 @@
       <c r="Q18" s="152"/>
       <c r="R18" s="152"/>
       <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
+      <c r="V18" s="497"/>
       <c r="W18" s="144"/>
       <c r="X18" s="144"/>
       <c r="Y18" s="257"/>
@@ -7493,7 +7739,7 @@
       <c r="Q19" s="152"/>
       <c r="R19" s="152"/>
       <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
+      <c r="V19" s="497"/>
       <c r="W19" s="144"/>
       <c r="X19" s="144"/>
       <c r="Y19" s="257"/>
@@ -7537,7 +7783,7 @@
       <c r="Q20" s="152"/>
       <c r="R20" s="152"/>
       <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
+      <c r="V20" s="497"/>
       <c r="W20" s="144"/>
       <c r="X20" s="144"/>
       <c r="Y20" s="257"/>
@@ -7545,16 +7791,16 @@
     </row>
     <row r="21" spans="1:26" s="153" customFormat="1" ht="46.8">
       <c r="A21" s="194" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B21" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E21" s="141"/>
       <c r="F21" s="143"/>
@@ -7579,24 +7825,24 @@
       <c r="Q21" s="152"/>
       <c r="R21" s="152"/>
       <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
+      <c r="V21" s="497"/>
       <c r="W21" s="144"/>
       <c r="X21" s="144"/>
       <c r="Y21" s="257"/>
       <c r="Z21" s="144"/>
     </row>
-    <row r="22" spans="1:26" s="153" customFormat="1" ht="62.4">
+    <row r="22" spans="1:26" s="153" customFormat="1" ht="46.8">
       <c r="A22" s="194" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B22" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="203" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D22" s="140" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E22" s="141"/>
       <c r="F22" s="143"/>
@@ -7621,30 +7867,30 @@
       <c r="Q22" s="152"/>
       <c r="R22" s="152"/>
       <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
+      <c r="V22" s="497"/>
       <c r="W22" s="144"/>
       <c r="X22" s="144"/>
       <c r="Y22" s="257"/>
       <c r="Z22" s="144"/>
     </row>
     <row r="23" spans="1:26" s="254" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A23" s="409" t="s">
+      <c r="A23" s="412" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="409"/>
-      <c r="C23" s="409"/>
-      <c r="D23" s="409"/>
-      <c r="E23" s="409"/>
-      <c r="F23" s="409"/>
-      <c r="G23" s="409"/>
-      <c r="H23" s="409"/>
-      <c r="I23" s="409"/>
-      <c r="J23" s="409"/>
-      <c r="K23" s="409"/>
-      <c r="L23" s="409"/>
-      <c r="M23" s="409"/>
-      <c r="N23" s="409"/>
-      <c r="O23" s="409"/>
+      <c r="B23" s="412"/>
+      <c r="C23" s="412"/>
+      <c r="D23" s="412"/>
+      <c r="E23" s="412"/>
+      <c r="F23" s="412"/>
+      <c r="G23" s="412"/>
+      <c r="H23" s="412"/>
+      <c r="I23" s="412"/>
+      <c r="J23" s="412"/>
+      <c r="K23" s="412"/>
+      <c r="L23" s="412"/>
+      <c r="M23" s="412"/>
+      <c r="N23" s="412"/>
+      <c r="O23" s="412"/>
       <c r="P23" s="382"/>
       <c r="Q23" s="253"/>
       <c r="R23" s="253"/>
@@ -7708,7 +7954,7 @@
       <c r="P24" s="381"/>
       <c r="Q24" s="213"/>
       <c r="R24" s="213"/>
-      <c r="T24" s="493"/>
+      <c r="T24" s="409"/>
       <c r="U24" s="144"/>
       <c r="V24" s="144"/>
       <c r="W24" s="144"/>
@@ -7769,7 +8015,7 @@
       <c r="P25" s="381"/>
       <c r="Q25" s="213"/>
       <c r="R25" s="213"/>
-      <c r="T25" s="493"/>
+      <c r="T25" s="409"/>
       <c r="U25" s="144"/>
       <c r="V25" s="144"/>
       <c r="W25" s="144"/>
@@ -7777,7 +8023,7 @@
       <c r="Y25" s="145"/>
       <c r="Z25" s="145"/>
     </row>
-    <row r="26" spans="1:26" s="158" customFormat="1" ht="62.4">
+    <row r="26" spans="1:26" s="158" customFormat="1" ht="63" thickBot="1">
       <c r="A26" s="194" t="s">
         <v>20</v>
       </c>
@@ -7830,7 +8076,7 @@
       <c r="P26" s="381"/>
       <c r="Q26" s="213"/>
       <c r="R26" s="213"/>
-      <c r="T26" s="493"/>
+      <c r="T26" s="409"/>
       <c r="U26" s="144"/>
       <c r="V26" s="144"/>
       <c r="W26" s="144"/>
@@ -7838,7 +8084,7 @@
       <c r="Y26" s="145"/>
       <c r="Z26" s="145"/>
     </row>
-    <row r="27" spans="1:26" s="158" customFormat="1" ht="62.4">
+    <row r="27" spans="1:26" s="158" customFormat="1" ht="63" thickBot="1">
       <c r="A27" s="194" t="s">
         <v>20</v>
       </c>
@@ -7846,10 +8092,10 @@
         <v>484</v>
       </c>
       <c r="C27" s="140" t="s">
+        <v>902</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>903</v>
-      </c>
-      <c r="D27" s="140" t="s">
-        <v>904</v>
       </c>
       <c r="E27" s="141"/>
       <c r="F27" s="143"/>
@@ -7876,7 +8122,9 @@
       <c r="Q27" s="213"/>
       <c r="R27" s="213"/>
       <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
+      <c r="V27" s="506" t="s">
+        <v>952</v>
+      </c>
       <c r="W27" s="144"/>
       <c r="X27" s="145"/>
       <c r="Y27" s="145"/>
@@ -7935,9 +8183,9 @@
       <c r="P28" s="381"/>
       <c r="Q28" s="213"/>
       <c r="R28" s="213"/>
-      <c r="T28" s="493"/>
+      <c r="T28" s="409"/>
       <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
+      <c r="V28" s="498"/>
       <c r="W28" s="144"/>
       <c r="X28" s="145"/>
       <c r="Y28" s="145"/>
@@ -7995,9 +8243,9 @@
       <c r="P29" s="381"/>
       <c r="Q29" s="213"/>
       <c r="R29" s="213"/>
-      <c r="T29" s="493"/>
+      <c r="T29" s="409"/>
       <c r="U29" s="144"/>
-      <c r="V29" s="144"/>
+      <c r="V29" s="498"/>
       <c r="W29" s="144"/>
       <c r="X29" s="145"/>
       <c r="Y29" s="145"/>
@@ -8057,8 +8305,9 @@
       <c r="P30" s="381"/>
       <c r="Q30" s="213"/>
       <c r="R30" s="213"/>
+      <c r="T30" s="409"/>
       <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
+      <c r="V30" s="498"/>
       <c r="W30" s="144"/>
       <c r="X30" s="145"/>
       <c r="Y30" s="145"/>
@@ -8118,14 +8367,15 @@
       <c r="P31" s="387"/>
       <c r="Q31" s="261"/>
       <c r="R31" s="261"/>
+      <c r="T31" s="409"/>
       <c r="U31" s="263"/>
-      <c r="V31" s="263"/>
+      <c r="V31" s="498"/>
       <c r="W31" s="263"/>
       <c r="X31" s="263"/>
       <c r="Y31" s="263"/>
       <c r="Z31" s="263"/>
     </row>
-    <row r="32" spans="1:26" s="262" customFormat="1" ht="96.6">
+    <row r="32" spans="1:26" s="262" customFormat="1" ht="97.2" thickBot="1">
       <c r="A32" s="194" t="s">
         <v>276</v>
       </c>
@@ -8177,14 +8427,15 @@
       <c r="P32" s="387"/>
       <c r="Q32" s="261"/>
       <c r="R32" s="261"/>
+      <c r="T32" s="409"/>
       <c r="U32" s="263"/>
-      <c r="V32" s="263"/>
+      <c r="V32" s="498"/>
       <c r="W32" s="263"/>
       <c r="X32" s="263"/>
       <c r="Y32" s="263"/>
       <c r="Z32" s="263"/>
     </row>
-    <row r="33" spans="1:26" s="158" customFormat="1" ht="140.4">
+    <row r="33" spans="1:26" s="158" customFormat="1" ht="141" thickBot="1">
       <c r="A33" s="194" t="s">
         <v>276</v>
       </c>
@@ -8192,10 +8443,10 @@
         <v>484</v>
       </c>
       <c r="C33" s="140" t="s">
+        <v>940</v>
+      </c>
+      <c r="D33" s="140" t="s">
         <v>741</v>
-      </c>
-      <c r="D33" s="140" t="s">
-        <v>742</v>
       </c>
       <c r="E33" s="141">
         <v>746.66</v>
@@ -8237,8 +8488,17 @@
       <c r="P33" s="381"/>
       <c r="Q33" s="213"/>
       <c r="R33" s="213"/>
-    </row>
-    <row r="34" spans="1:26" s="262" customFormat="1" ht="55.2">
+      <c r="T33" s="158" t="s">
+        <v>941</v>
+      </c>
+      <c r="U33" s="410">
+        <v>1200</v>
+      </c>
+      <c r="V33" s="506" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" s="262" customFormat="1" ht="63" thickBot="1">
       <c r="A34" s="194" t="s">
         <v>29</v>
       </c>
@@ -8273,14 +8533,21 @@
       <c r="P34" s="387"/>
       <c r="Q34" s="261"/>
       <c r="R34" s="261"/>
-      <c r="U34" s="263"/>
-      <c r="V34" s="263"/>
+      <c r="T34" s="262" t="s">
+        <v>942</v>
+      </c>
+      <c r="U34" s="263" t="s">
+        <v>943</v>
+      </c>
+      <c r="V34" s="506" t="s">
+        <v>950</v>
+      </c>
       <c r="W34" s="263"/>
       <c r="X34" s="263"/>
       <c r="Y34" s="263"/>
       <c r="Z34" s="263"/>
     </row>
-    <row r="35" spans="1:26" s="158" customFormat="1" ht="156">
+    <row r="35" spans="1:26" s="158" customFormat="1" ht="156.6" thickBot="1">
       <c r="A35" s="194" t="s">
         <v>29</v>
       </c>
@@ -8333,8 +8600,12 @@
       <c r="P35" s="381"/>
       <c r="Q35" s="213"/>
       <c r="R35" s="213"/>
-    </row>
-    <row r="36" spans="1:26" s="126" customFormat="1" ht="62.4">
+      <c r="V35" s="506" t="s">
+        <v>949</v>
+      </c>
+      <c r="W35" s="505"/>
+    </row>
+    <row r="36" spans="1:26" s="126" customFormat="1" ht="63" thickBot="1">
       <c r="A36" s="194" t="s">
         <v>34</v>
       </c>
@@ -8387,8 +8658,14 @@
       <c r="P36" s="379"/>
       <c r="Q36" s="147"/>
       <c r="R36" s="128"/>
-    </row>
-    <row r="37" spans="1:26" s="126" customFormat="1" ht="124.8">
+      <c r="T36" s="126" t="s">
+        <v>944</v>
+      </c>
+      <c r="V36" s="506" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="126" customFormat="1" ht="125.4" thickBot="1">
       <c r="A37" s="194" t="s">
         <v>719</v>
       </c>
@@ -8439,8 +8716,14 @@
       <c r="P37" s="380"/>
       <c r="Q37" s="368"/>
       <c r="R37" s="369"/>
-    </row>
-    <row r="38" spans="1:26" s="126" customFormat="1" ht="124.8">
+      <c r="T37" s="126" t="s">
+        <v>945</v>
+      </c>
+      <c r="V37" s="506" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" s="126" customFormat="1" ht="109.8" thickBot="1">
       <c r="A38" s="194" t="s">
         <v>719</v>
       </c>
@@ -8493,8 +8776,14 @@
       <c r="P38" s="380"/>
       <c r="Q38" s="368"/>
       <c r="R38" s="369"/>
-    </row>
-    <row r="39" spans="1:26" s="126" customFormat="1" ht="93.6">
+      <c r="T38" s="126">
+        <v>3</v>
+      </c>
+      <c r="V38" s="506" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" s="126" customFormat="1" ht="94.2" thickBot="1">
       <c r="A39" s="194" t="s">
         <v>719</v>
       </c>
@@ -8545,8 +8834,11 @@
       <c r="P39" s="380"/>
       <c r="Q39" s="368"/>
       <c r="R39" s="369"/>
-    </row>
-    <row r="40" spans="1:26" s="126" customFormat="1" ht="62.4">
+      <c r="V39" s="506" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" s="126" customFormat="1" ht="63" thickBot="1">
       <c r="A40" s="194" t="s">
         <v>719</v>
       </c>
@@ -8597,8 +8889,11 @@
       <c r="P40" s="380"/>
       <c r="Q40" s="368"/>
       <c r="R40" s="369"/>
-    </row>
-    <row r="41" spans="1:26" s="126" customFormat="1" ht="46.8">
+      <c r="V40" s="506" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" s="126" customFormat="1" ht="47.4" thickBot="1">
       <c r="A41" s="194" t="s">
         <v>719</v>
       </c>
@@ -8649,25 +8944,28 @@
       <c r="P41" s="380"/>
       <c r="Q41" s="368"/>
       <c r="R41" s="369"/>
+      <c r="V41" s="506" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="42" spans="1:26" s="129" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A42" s="412" t="s">
+      <c r="A42" s="415" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="412"/>
-      <c r="C42" s="412"/>
-      <c r="D42" s="412"/>
-      <c r="E42" s="412"/>
-      <c r="F42" s="412"/>
-      <c r="G42" s="412"/>
-      <c r="H42" s="412"/>
-      <c r="I42" s="412"/>
-      <c r="J42" s="412"/>
-      <c r="K42" s="412"/>
-      <c r="L42" s="412"/>
-      <c r="M42" s="412"/>
-      <c r="N42" s="412"/>
-      <c r="O42" s="412"/>
+      <c r="B42" s="415"/>
+      <c r="C42" s="415"/>
+      <c r="D42" s="415"/>
+      <c r="E42" s="415"/>
+      <c r="F42" s="415"/>
+      <c r="G42" s="415"/>
+      <c r="H42" s="415"/>
+      <c r="I42" s="415"/>
+      <c r="J42" s="415"/>
+      <c r="K42" s="415"/>
+      <c r="L42" s="415"/>
+      <c r="M42" s="415"/>
+      <c r="N42" s="415"/>
+      <c r="O42" s="415"/>
       <c r="P42" s="381"/>
       <c r="Q42" s="130"/>
       <c r="R42" s="131"/>
@@ -8725,8 +9023,9 @@
       <c r="P43" s="382"/>
       <c r="Q43" s="152"/>
       <c r="R43" s="152"/>
+      <c r="T43" s="409"/>
       <c r="U43" s="154"/>
-      <c r="V43" s="154"/>
+      <c r="V43" s="501"/>
       <c r="W43" s="154"/>
       <c r="X43" s="154"/>
       <c r="Y43" s="154"/>
@@ -8740,10 +9039,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="140" t="s">
+        <v>742</v>
+      </c>
+      <c r="D44" s="140" t="s">
         <v>743</v>
-      </c>
-      <c r="D44" s="140" t="s">
-        <v>744</v>
       </c>
       <c r="E44" s="141">
         <v>13.12</v>
@@ -8785,13 +9084,13 @@
       <c r="Q44" s="152"/>
       <c r="R44" s="152"/>
       <c r="U44" s="154"/>
-      <c r="V44" s="154"/>
+      <c r="V44" s="501"/>
       <c r="W44" s="154"/>
       <c r="X44" s="154"/>
       <c r="Y44" s="154"/>
       <c r="Z44" s="154"/>
     </row>
-    <row r="45" spans="1:26" s="153" customFormat="1" ht="78">
+    <row r="45" spans="1:26" s="153" customFormat="1" ht="78.599999999999994" thickBot="1">
       <c r="A45" s="194" t="s">
         <v>316</v>
       </c>
@@ -8842,13 +9141,13 @@
       <c r="Q45" s="152"/>
       <c r="R45" s="152"/>
       <c r="U45" s="154"/>
-      <c r="V45" s="154"/>
+      <c r="V45" s="501"/>
       <c r="W45" s="154"/>
       <c r="X45" s="154"/>
       <c r="Y45" s="154"/>
       <c r="Z45" s="154"/>
     </row>
-    <row r="46" spans="1:26" s="153" customFormat="1" ht="93.6">
+    <row r="46" spans="1:26" s="153" customFormat="1" ht="94.2" thickBot="1">
       <c r="A46" s="194" t="s">
         <v>317</v>
       </c>
@@ -8900,13 +9199,15 @@
       <c r="Q46" s="152"/>
       <c r="R46" s="152"/>
       <c r="U46" s="154"/>
-      <c r="V46" s="154"/>
+      <c r="V46" s="506" t="s">
+        <v>957</v>
+      </c>
       <c r="W46" s="154"/>
       <c r="X46" s="154"/>
       <c r="Y46" s="154"/>
       <c r="Z46" s="154"/>
     </row>
-    <row r="47" spans="1:26" s="153" customFormat="1" ht="31.2">
+    <row r="47" spans="1:26" s="153" customFormat="1" ht="47.4" thickBot="1">
       <c r="A47" s="194" t="s">
         <v>318</v>
       </c>
@@ -8958,13 +9259,15 @@
       <c r="Q47" s="152"/>
       <c r="R47" s="152"/>
       <c r="U47" s="154"/>
-      <c r="V47" s="154"/>
+      <c r="V47" s="506" t="s">
+        <v>957</v>
+      </c>
       <c r="W47" s="154"/>
       <c r="X47" s="154"/>
       <c r="Y47" s="154"/>
       <c r="Z47" s="154"/>
     </row>
-    <row r="48" spans="1:26" s="153" customFormat="1" ht="93.6">
+    <row r="48" spans="1:26" s="153" customFormat="1" ht="94.2" thickBot="1">
       <c r="A48" s="194" t="s">
         <v>44</v>
       </c>
@@ -9018,13 +9321,15 @@
       <c r="Q48" s="152"/>
       <c r="R48" s="152"/>
       <c r="U48" s="154"/>
-      <c r="V48" s="154"/>
+      <c r="V48" s="506" t="s">
+        <v>958</v>
+      </c>
       <c r="W48" s="154"/>
       <c r="X48" s="154"/>
       <c r="Y48" s="154"/>
       <c r="Z48" s="154"/>
     </row>
-    <row r="49" spans="1:26" s="153" customFormat="1" ht="62.4">
+    <row r="49" spans="1:26" s="153" customFormat="1" ht="63" thickBot="1">
       <c r="A49" s="194" t="s">
         <v>44</v>
       </c>
@@ -9078,13 +9383,15 @@
       <c r="Q49" s="152"/>
       <c r="R49" s="152"/>
       <c r="U49" s="154"/>
-      <c r="V49" s="154"/>
+      <c r="V49" s="506" t="s">
+        <v>959</v>
+      </c>
       <c r="W49" s="154"/>
       <c r="X49" s="154"/>
       <c r="Y49" s="154"/>
       <c r="Z49" s="154"/>
     </row>
-    <row r="50" spans="1:26" s="153" customFormat="1" ht="78">
+    <row r="50" spans="1:26" s="153" customFormat="1" ht="78.599999999999994" thickBot="1">
       <c r="A50" s="194" t="s">
         <v>44</v>
       </c>
@@ -9138,13 +9445,15 @@
       <c r="Q50" s="152"/>
       <c r="R50" s="152"/>
       <c r="U50" s="154"/>
-      <c r="V50" s="154"/>
+      <c r="V50" s="506" t="s">
+        <v>960</v>
+      </c>
       <c r="W50" s="154"/>
       <c r="X50" s="154"/>
       <c r="Y50" s="154"/>
       <c r="Z50" s="154"/>
     </row>
-    <row r="51" spans="1:26" s="153" customFormat="1" ht="93.6">
+    <row r="51" spans="1:26" s="153" customFormat="1" ht="94.2" thickBot="1">
       <c r="A51" s="194" t="s">
         <v>44</v>
       </c>
@@ -9155,7 +9464,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="140" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E51" s="141">
         <v>115</v>
@@ -9196,13 +9505,15 @@
       <c r="Q51" s="152"/>
       <c r="R51" s="152"/>
       <c r="U51" s="154"/>
-      <c r="V51" s="154"/>
+      <c r="V51" s="506" t="s">
+        <v>971</v>
+      </c>
       <c r="W51" s="154"/>
       <c r="X51" s="154"/>
       <c r="Y51" s="154"/>
       <c r="Z51" s="154"/>
     </row>
-    <row r="52" spans="1:26" s="153" customFormat="1" ht="46.8">
+    <row r="52" spans="1:26" s="153" customFormat="1" ht="47.4" thickBot="1">
       <c r="A52" s="194" t="s">
         <v>44</v>
       </c>
@@ -9210,10 +9521,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="140" t="s">
+        <v>750</v>
+      </c>
+      <c r="D52" s="140" t="s">
         <v>751</v>
-      </c>
-      <c r="D52" s="140" t="s">
-        <v>752</v>
       </c>
       <c r="E52" s="141">
         <v>115</v>
@@ -9254,13 +9565,15 @@
       <c r="Q52" s="152"/>
       <c r="R52" s="152"/>
       <c r="U52" s="154"/>
-      <c r="V52" s="154"/>
+      <c r="V52" s="506" t="s">
+        <v>961</v>
+      </c>
       <c r="W52" s="154"/>
       <c r="X52" s="154"/>
       <c r="Y52" s="154"/>
       <c r="Z52" s="154"/>
     </row>
-    <row r="53" spans="1:26" s="153" customFormat="1" ht="109.2">
+    <row r="53" spans="1:26" s="153" customFormat="1" ht="109.8" thickBot="1">
       <c r="A53" s="194" t="s">
         <v>524</v>
       </c>
@@ -9296,13 +9609,15 @@
       <c r="Q53" s="152"/>
       <c r="R53" s="152"/>
       <c r="U53" s="154"/>
-      <c r="V53" s="154"/>
+      <c r="V53" s="506" t="s">
+        <v>962</v>
+      </c>
       <c r="W53" s="154"/>
       <c r="X53" s="154"/>
       <c r="Y53" s="154"/>
       <c r="Z53" s="154"/>
     </row>
-    <row r="54" spans="1:26" s="153" customFormat="1" ht="31.2">
+    <row r="54" spans="1:26" s="153" customFormat="1" ht="31.8" thickBot="1">
       <c r="A54" s="194" t="s">
         <v>34</v>
       </c>
@@ -9310,7 +9625,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="140" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D54" s="140" t="s">
         <v>270</v>
@@ -9355,30 +9670,32 @@
       <c r="Q54" s="152"/>
       <c r="R54" s="152"/>
       <c r="U54" s="154"/>
-      <c r="V54" s="154"/>
+      <c r="V54" s="506" t="s">
+        <v>963</v>
+      </c>
       <c r="W54" s="154"/>
       <c r="X54" s="154"/>
       <c r="Y54" s="154"/>
       <c r="Z54" s="154"/>
     </row>
-    <row r="55" spans="1:26" s="254" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="409" t="s">
+    <row r="55" spans="1:26" s="254" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="A55" s="412" t="s">
         <v>440</v>
       </c>
-      <c r="B55" s="409"/>
-      <c r="C55" s="409"/>
-      <c r="D55" s="409"/>
-      <c r="E55" s="409"/>
-      <c r="F55" s="409"/>
-      <c r="G55" s="409"/>
-      <c r="H55" s="409"/>
-      <c r="I55" s="409"/>
-      <c r="J55" s="409"/>
-      <c r="K55" s="409"/>
-      <c r="L55" s="409"/>
-      <c r="M55" s="409"/>
-      <c r="N55" s="409"/>
-      <c r="O55" s="409"/>
+      <c r="B55" s="412"/>
+      <c r="C55" s="412"/>
+      <c r="D55" s="412"/>
+      <c r="E55" s="412"/>
+      <c r="F55" s="412"/>
+      <c r="G55" s="412"/>
+      <c r="H55" s="412"/>
+      <c r="I55" s="412"/>
+      <c r="J55" s="412"/>
+      <c r="K55" s="412"/>
+      <c r="L55" s="412"/>
+      <c r="M55" s="412"/>
+      <c r="N55" s="412"/>
+      <c r="O55" s="412"/>
       <c r="P55" s="381"/>
       <c r="Q55" s="130"/>
       <c r="R55" s="253"/>
@@ -9389,7 +9706,7 @@
       <c r="Y55" s="255"/>
       <c r="Z55" s="255"/>
     </row>
-    <row r="56" spans="1:26" s="168" customFormat="1" ht="52.5" customHeight="1">
+    <row r="56" spans="1:26" s="168" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
       <c r="A56" s="363" t="s">
         <v>97</v>
       </c>
@@ -9445,14 +9762,18 @@
       <c r="P56" s="382"/>
       <c r="Q56" s="167"/>
       <c r="R56" s="167"/>
-      <c r="U56" s="169"/>
-      <c r="V56" s="169"/>
+      <c r="U56" s="507" t="s">
+        <v>964</v>
+      </c>
+      <c r="V56" s="506" t="s">
+        <v>965</v>
+      </c>
       <c r="W56" s="169"/>
       <c r="X56" s="169"/>
       <c r="Y56" s="169"/>
       <c r="Z56" s="169"/>
     </row>
-    <row r="57" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1">
+    <row r="57" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A57" s="363" t="s">
         <v>97</v>
       </c>
@@ -9507,13 +9828,13 @@
       <c r="Q57" s="167"/>
       <c r="R57" s="167"/>
       <c r="U57" s="169"/>
-      <c r="V57" s="169"/>
+      <c r="V57" s="506"/>
       <c r="W57" s="169"/>
       <c r="X57" s="169"/>
       <c r="Y57" s="169"/>
       <c r="Z57" s="169"/>
     </row>
-    <row r="58" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1">
+    <row r="58" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A58" s="362" t="s">
         <v>263</v>
       </c>
@@ -9553,7 +9874,9 @@
       <c r="Q58" s="167"/>
       <c r="R58" s="167"/>
       <c r="U58" s="169"/>
-      <c r="V58" s="169"/>
+      <c r="V58" s="506" t="s">
+        <v>966</v>
+      </c>
       <c r="W58" s="169"/>
       <c r="X58" s="169"/>
       <c r="Y58" s="169"/>
@@ -9598,7 +9921,7 @@
       <c r="Q59" s="167"/>
       <c r="R59" s="167"/>
       <c r="U59" s="169"/>
-      <c r="V59" s="169"/>
+      <c r="V59" s="502"/>
       <c r="W59" s="169"/>
       <c r="X59" s="169"/>
       <c r="Y59" s="169"/>
@@ -9644,13 +9967,13 @@
       <c r="Q60" s="167"/>
       <c r="R60" s="167"/>
       <c r="U60" s="169"/>
-      <c r="V60" s="169"/>
+      <c r="V60" s="502"/>
       <c r="W60" s="169"/>
       <c r="X60" s="169"/>
       <c r="Y60" s="169"/>
       <c r="Z60" s="169"/>
     </row>
-    <row r="61" spans="1:26" s="254" customFormat="1" ht="31.2">
+    <row r="61" spans="1:26" s="254" customFormat="1" ht="31.8" thickBot="1">
       <c r="A61" s="362" t="s">
         <v>97</v>
       </c>
@@ -9689,13 +10012,13 @@
       <c r="Q61" s="253"/>
       <c r="R61" s="253"/>
       <c r="U61" s="255"/>
-      <c r="V61" s="255"/>
+      <c r="V61" s="503"/>
       <c r="W61" s="255"/>
       <c r="X61" s="255"/>
       <c r="Y61" s="255"/>
       <c r="Z61" s="255"/>
     </row>
-    <row r="62" spans="1:26" s="254" customFormat="1" ht="138">
+    <row r="62" spans="1:26" s="254" customFormat="1" ht="138.6" thickBot="1">
       <c r="A62" s="362" t="s">
         <v>263</v>
       </c>
@@ -9729,13 +10052,15 @@
       <c r="Q62" s="253"/>
       <c r="R62" s="253"/>
       <c r="U62" s="255"/>
-      <c r="V62" s="255"/>
+      <c r="V62" s="506" t="s">
+        <v>967</v>
+      </c>
       <c r="W62" s="255"/>
       <c r="X62" s="255"/>
       <c r="Y62" s="255"/>
       <c r="Z62" s="255"/>
     </row>
-    <row r="63" spans="1:26" s="153" customFormat="1" ht="124.8">
+    <row r="63" spans="1:26" s="153" customFormat="1" ht="125.4" thickBot="1">
       <c r="A63" s="194" t="s">
         <v>441</v>
       </c>
@@ -9769,13 +10094,15 @@
       <c r="Q63" s="152"/>
       <c r="R63" s="152"/>
       <c r="U63" s="154"/>
-      <c r="V63" s="154"/>
+      <c r="V63" s="506" t="s">
+        <v>968</v>
+      </c>
       <c r="W63" s="154"/>
       <c r="X63" s="154"/>
       <c r="Y63" s="154"/>
       <c r="Z63" s="154"/>
     </row>
-    <row r="64" spans="1:26" s="153" customFormat="1" ht="124.8">
+    <row r="64" spans="1:26" s="153" customFormat="1" ht="125.4" thickBot="1">
       <c r="A64" s="194" t="s">
         <v>441</v>
       </c>
@@ -9817,30 +10144,32 @@
       <c r="Q64" s="152"/>
       <c r="R64" s="152"/>
       <c r="U64" s="154"/>
-      <c r="V64" s="154"/>
+      <c r="V64" s="506" t="s">
+        <v>968</v>
+      </c>
       <c r="W64" s="154"/>
       <c r="X64" s="154"/>
       <c r="Y64" s="154"/>
       <c r="Z64" s="154"/>
     </row>
-    <row r="65" spans="1:26" s="254" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A65" s="409" t="s">
+    <row r="65" spans="1:26" s="254" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A65" s="412" t="s">
         <v>51</v>
       </c>
-      <c r="B65" s="409"/>
-      <c r="C65" s="409"/>
-      <c r="D65" s="409"/>
-      <c r="E65" s="409"/>
-      <c r="F65" s="409"/>
-      <c r="G65" s="409"/>
-      <c r="H65" s="409"/>
-      <c r="I65" s="409"/>
-      <c r="J65" s="409"/>
-      <c r="K65" s="409"/>
-      <c r="L65" s="409"/>
-      <c r="M65" s="409"/>
-      <c r="N65" s="409"/>
-      <c r="O65" s="409"/>
+      <c r="B65" s="412"/>
+      <c r="C65" s="412"/>
+      <c r="D65" s="412"/>
+      <c r="E65" s="412"/>
+      <c r="F65" s="412"/>
+      <c r="G65" s="412"/>
+      <c r="H65" s="412"/>
+      <c r="I65" s="412"/>
+      <c r="J65" s="412"/>
+      <c r="K65" s="412"/>
+      <c r="L65" s="412"/>
+      <c r="M65" s="412"/>
+      <c r="N65" s="412"/>
+      <c r="O65" s="412"/>
       <c r="P65" s="381"/>
       <c r="Q65" s="130"/>
       <c r="R65" s="253"/>
@@ -9851,7 +10180,7 @@
       <c r="Y65" s="255"/>
       <c r="Z65" s="255"/>
     </row>
-    <row r="66" spans="1:26" s="158" customFormat="1" ht="62.4">
+    <row r="66" spans="1:26" s="158" customFormat="1" ht="63" thickBot="1">
       <c r="A66" s="194" t="s">
         <v>52</v>
       </c>
@@ -9904,8 +10233,11 @@
       <c r="P66" s="381"/>
       <c r="Q66" s="213"/>
       <c r="R66" s="213"/>
-    </row>
-    <row r="67" spans="1:26" s="158" customFormat="1" ht="124.8">
+      <c r="V66" s="506" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" s="158" customFormat="1" ht="125.4" thickBot="1">
       <c r="A67" s="194" t="s">
         <v>52</v>
       </c>
@@ -9958,8 +10290,11 @@
       <c r="P67" s="381"/>
       <c r="Q67" s="213"/>
       <c r="R67" s="213"/>
-    </row>
-    <row r="68" spans="1:26" s="158" customFormat="1" ht="296.39999999999998">
+      <c r="V67" s="506" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" s="158" customFormat="1" ht="281.39999999999998" thickBot="1">
       <c r="A68" s="194" t="s">
         <v>52</v>
       </c>
@@ -10012,8 +10347,9 @@
       <c r="P68" s="381"/>
       <c r="Q68" s="213"/>
       <c r="R68" s="213"/>
-    </row>
-    <row r="69" spans="1:26" s="126" customFormat="1" ht="31.2">
+      <c r="V68" s="499"/>
+    </row>
+    <row r="69" spans="1:26" s="126" customFormat="1" ht="31.8" thickBot="1">
       <c r="A69" s="364" t="s">
         <v>281</v>
       </c>
@@ -10064,8 +10400,14 @@
       <c r="P69" s="381"/>
       <c r="Q69" s="127"/>
       <c r="R69" s="127"/>
-    </row>
-    <row r="70" spans="1:26" s="126" customFormat="1" ht="31.2">
+      <c r="T69" s="495" t="s">
+        <v>946</v>
+      </c>
+      <c r="V69" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" s="126" customFormat="1" ht="31.8" thickBot="1">
       <c r="A70" s="194" t="s">
         <v>282</v>
       </c>
@@ -10116,8 +10458,14 @@
       <c r="P70" s="381"/>
       <c r="Q70" s="127"/>
       <c r="R70" s="127"/>
-    </row>
-    <row r="71" spans="1:26" s="126" customFormat="1" ht="31.2">
+      <c r="T70" s="495" t="s">
+        <v>972</v>
+      </c>
+      <c r="V70" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" s="126" customFormat="1" ht="31.8" thickBot="1">
       <c r="A71" s="364" t="s">
         <v>283</v>
       </c>
@@ -10168,8 +10516,14 @@
       <c r="P71" s="381"/>
       <c r="Q71" s="127"/>
       <c r="R71" s="127"/>
-    </row>
-    <row r="72" spans="1:26" s="126" customFormat="1" ht="30.75" customHeight="1">
+      <c r="T71" s="495" t="s">
+        <v>973</v>
+      </c>
+      <c r="V71" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" s="126" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
       <c r="A72" s="194" t="s">
         <v>284</v>
       </c>
@@ -10220,8 +10574,10 @@
       <c r="P72" s="381"/>
       <c r="Q72" s="127"/>
       <c r="R72" s="127"/>
-    </row>
-    <row r="73" spans="1:26" s="126" customFormat="1" ht="30">
+      <c r="T72" s="409"/>
+      <c r="V72" s="500"/>
+    </row>
+    <row r="73" spans="1:26" s="126" customFormat="1" ht="30.6" thickBot="1">
       <c r="A73" s="194" t="s">
         <v>285</v>
       </c>
@@ -10272,8 +10628,17 @@
       <c r="P73" s="381"/>
       <c r="Q73" s="127"/>
       <c r="R73" s="127"/>
-    </row>
-    <row r="74" spans="1:26" ht="31.2">
+      <c r="T73" s="495" t="s">
+        <v>974</v>
+      </c>
+      <c r="U73" s="126">
+        <v>349.99</v>
+      </c>
+      <c r="V73" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="31.8" thickBot="1">
       <c r="A74" s="194" t="s">
         <v>286</v>
       </c>
@@ -10321,8 +10686,17 @@
         <f t="shared" si="28"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" ht="31.2">
+      <c r="T74" s="495" t="s">
+        <v>975</v>
+      </c>
+      <c r="U74" s="250">
+        <v>349.99</v>
+      </c>
+      <c r="V74" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="31.8" thickBot="1">
       <c r="A75" s="194" t="s">
         <v>287</v>
       </c>
@@ -10370,8 +10744,11 @@
         <f t="shared" si="28"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="76" spans="1:26" ht="31.2">
+      <c r="V75" s="506" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="31.8" thickBot="1">
       <c r="A76" s="194" t="s">
         <v>372</v>
       </c>
@@ -10404,8 +10781,17 @@
         <v>329</v>
       </c>
       <c r="O76" s="305"/>
-    </row>
-    <row r="77" spans="1:26" ht="30">
+      <c r="T76" s="495" t="s">
+        <v>977</v>
+      </c>
+      <c r="U76" s="250">
+        <v>449.99</v>
+      </c>
+      <c r="V76" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" ht="30.6" thickBot="1">
       <c r="A77" s="194" t="s">
         <v>370</v>
       </c>
@@ -10438,8 +10824,17 @@
         <v>329</v>
       </c>
       <c r="O77" s="305"/>
-    </row>
-    <row r="78" spans="1:26" ht="30">
+      <c r="T77" s="495" t="s">
+        <v>978</v>
+      </c>
+      <c r="U77" s="250">
+        <v>389.99</v>
+      </c>
+      <c r="V77" s="506" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" ht="30.6" thickBot="1">
       <c r="A78" s="194" t="s">
         <v>368</v>
       </c>
@@ -10472,8 +10867,13 @@
         <v>299</v>
       </c>
       <c r="O78" s="305"/>
-    </row>
-    <row r="79" spans="1:26" ht="30">
+      <c r="T78" s="409"/>
+      <c r="U78" s="250">
+        <v>399</v>
+      </c>
+      <c r="V78" s="504"/>
+    </row>
+    <row r="79" spans="1:26" ht="30.6" thickBot="1">
       <c r="A79" s="194" t="s">
         <v>426</v>
       </c>
@@ -10506,8 +10906,11 @@
         <v>2.99</v>
       </c>
       <c r="O79" s="305"/>
-    </row>
-    <row r="80" spans="1:26" ht="30">
+      <c r="V79" s="506" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" ht="30.6" thickBot="1">
       <c r="A80" s="194" t="s">
         <v>429</v>
       </c>
@@ -10540,8 +10943,14 @@
         <v>1.75</v>
       </c>
       <c r="O80" s="305"/>
-    </row>
-    <row r="81" spans="1:26" ht="30">
+      <c r="T80" s="495">
+        <v>25010</v>
+      </c>
+      <c r="V80" s="506" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" ht="30.6" thickBot="1">
       <c r="A81" s="194" t="s">
         <v>434</v>
       </c>
@@ -10574,8 +10983,11 @@
         <v>32</v>
       </c>
       <c r="O81" s="305"/>
-    </row>
-    <row r="82" spans="1:26" ht="30">
+      <c r="V81" s="506" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" ht="30.6" thickBot="1">
       <c r="A82" s="194" t="s">
         <v>435</v>
       </c>
@@ -10608,25 +11020,28 @@
         <v>70</v>
       </c>
       <c r="O82" s="305"/>
+      <c r="V82" s="506" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="83" spans="1:26" s="254" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A83" s="408" t="s">
+      <c r="A83" s="411" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="408"/>
-      <c r="C83" s="408"/>
-      <c r="D83" s="408"/>
-      <c r="E83" s="408"/>
-      <c r="F83" s="408"/>
-      <c r="G83" s="408"/>
-      <c r="H83" s="408"/>
-      <c r="I83" s="408"/>
-      <c r="J83" s="408"/>
-      <c r="K83" s="408"/>
-      <c r="L83" s="408"/>
-      <c r="M83" s="408"/>
-      <c r="N83" s="408"/>
-      <c r="O83" s="408"/>
+      <c r="B83" s="411"/>
+      <c r="C83" s="411"/>
+      <c r="D83" s="411"/>
+      <c r="E83" s="411"/>
+      <c r="F83" s="411"/>
+      <c r="G83" s="411"/>
+      <c r="H83" s="411"/>
+      <c r="I83" s="411"/>
+      <c r="J83" s="411"/>
+      <c r="K83" s="411"/>
+      <c r="L83" s="411"/>
+      <c r="M83" s="411"/>
+      <c r="N83" s="411"/>
+      <c r="O83" s="411"/>
       <c r="P83" s="381"/>
       <c r="Q83" s="130"/>
       <c r="R83" s="253"/>
@@ -10638,23 +11053,23 @@
       <c r="Z83" s="255"/>
     </row>
     <row r="84" spans="1:26" s="254" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A84" s="409" t="s">
+      <c r="A84" s="412" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="409"/>
-      <c r="C84" s="409"/>
-      <c r="D84" s="409"/>
-      <c r="E84" s="409"/>
-      <c r="F84" s="409"/>
-      <c r="G84" s="409"/>
-      <c r="H84" s="409"/>
-      <c r="I84" s="409"/>
-      <c r="J84" s="409"/>
-      <c r="K84" s="409"/>
-      <c r="L84" s="409"/>
-      <c r="M84" s="409"/>
-      <c r="N84" s="409"/>
-      <c r="O84" s="409"/>
+      <c r="B84" s="412"/>
+      <c r="C84" s="412"/>
+      <c r="D84" s="412"/>
+      <c r="E84" s="412"/>
+      <c r="F84" s="412"/>
+      <c r="G84" s="412"/>
+      <c r="H84" s="412"/>
+      <c r="I84" s="412"/>
+      <c r="J84" s="412"/>
+      <c r="K84" s="412"/>
+      <c r="L84" s="412"/>
+      <c r="M84" s="412"/>
+      <c r="N84" s="412"/>
+      <c r="O84" s="412"/>
       <c r="P84" s="381"/>
       <c r="Q84" s="130"/>
       <c r="R84" s="253"/>
@@ -10718,8 +11133,11 @@
       <c r="P85" s="382"/>
       <c r="Q85" s="152"/>
       <c r="R85" s="152"/>
+      <c r="T85" s="507">
+        <v>94804</v>
+      </c>
       <c r="U85" s="154"/>
-      <c r="V85" s="154"/>
+      <c r="V85" s="501"/>
       <c r="W85" s="154"/>
       <c r="X85" s="154"/>
       <c r="Y85" s="154"/>
@@ -10761,7 +11179,7 @@
       <c r="Q86" s="152"/>
       <c r="R86" s="152"/>
       <c r="U86" s="154"/>
-      <c r="V86" s="154"/>
+      <c r="V86" s="501"/>
       <c r="W86" s="154"/>
       <c r="X86" s="154"/>
       <c r="Y86" s="154"/>
@@ -10822,7 +11240,7 @@
       <c r="Q87" s="152"/>
       <c r="R87" s="152"/>
       <c r="U87" s="154"/>
-      <c r="V87" s="154"/>
+      <c r="V87" s="501"/>
       <c r="W87" s="154"/>
       <c r="X87" s="154"/>
       <c r="Y87" s="154"/>
@@ -10880,30 +11298,30 @@
       <c r="Q88" s="152"/>
       <c r="R88" s="152"/>
       <c r="U88" s="154"/>
-      <c r="V88" s="154"/>
+      <c r="V88" s="501"/>
       <c r="W88" s="154"/>
       <c r="X88" s="154"/>
       <c r="Y88" s="154"/>
       <c r="Z88" s="154"/>
     </row>
     <row r="89" spans="1:26" s="254" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A89" s="409" t="s">
+      <c r="A89" s="412" t="s">
         <v>63</v>
       </c>
-      <c r="B89" s="409"/>
-      <c r="C89" s="409"/>
-      <c r="D89" s="409"/>
-      <c r="E89" s="409"/>
-      <c r="F89" s="409"/>
-      <c r="G89" s="409"/>
-      <c r="H89" s="409"/>
-      <c r="I89" s="409"/>
-      <c r="J89" s="409"/>
-      <c r="K89" s="409"/>
-      <c r="L89" s="409"/>
-      <c r="M89" s="409"/>
-      <c r="N89" s="409"/>
-      <c r="O89" s="409"/>
+      <c r="B89" s="412"/>
+      <c r="C89" s="412"/>
+      <c r="D89" s="412"/>
+      <c r="E89" s="412"/>
+      <c r="F89" s="412"/>
+      <c r="G89" s="412"/>
+      <c r="H89" s="412"/>
+      <c r="I89" s="412"/>
+      <c r="J89" s="412"/>
+      <c r="K89" s="412"/>
+      <c r="L89" s="412"/>
+      <c r="M89" s="412"/>
+      <c r="N89" s="412"/>
+      <c r="O89" s="412"/>
       <c r="P89" s="381"/>
       <c r="Q89" s="130"/>
       <c r="R89" s="253"/>
@@ -10968,7 +11386,7 @@
       <c r="Q90" s="152"/>
       <c r="R90" s="152"/>
       <c r="U90" s="154"/>
-      <c r="V90" s="154"/>
+      <c r="V90" s="501"/>
       <c r="W90" s="154"/>
       <c r="X90" s="154"/>
       <c r="Y90" s="154"/>
@@ -11026,7 +11444,7 @@
       <c r="Q91" s="152"/>
       <c r="R91" s="152"/>
       <c r="U91" s="154"/>
-      <c r="V91" s="154"/>
+      <c r="V91" s="501"/>
       <c r="W91" s="154"/>
       <c r="X91" s="154"/>
       <c r="Y91" s="154"/>
@@ -11066,7 +11484,7 @@
       <c r="Q92" s="152"/>
       <c r="R92" s="152"/>
       <c r="U92" s="154"/>
-      <c r="V92" s="154"/>
+      <c r="V92" s="501"/>
       <c r="W92" s="154"/>
       <c r="X92" s="154"/>
       <c r="Y92" s="154"/>
@@ -11124,7 +11542,7 @@
       <c r="Q93" s="152"/>
       <c r="R93" s="152"/>
       <c r="U93" s="154"/>
-      <c r="V93" s="154"/>
+      <c r="V93" s="501"/>
       <c r="W93" s="154"/>
       <c r="X93" s="154"/>
       <c r="Y93" s="154"/>
@@ -11164,7 +11582,7 @@
       <c r="Q94" s="152"/>
       <c r="R94" s="152"/>
       <c r="U94" s="154"/>
-      <c r="V94" s="154"/>
+      <c r="V94" s="501"/>
       <c r="W94" s="154"/>
       <c r="X94" s="154"/>
       <c r="Y94" s="154"/>
@@ -11204,7 +11622,7 @@
       <c r="Q95" s="152"/>
       <c r="R95" s="152"/>
       <c r="U95" s="154"/>
-      <c r="V95" s="154"/>
+      <c r="V95" s="501"/>
       <c r="W95" s="154"/>
       <c r="X95" s="154"/>
       <c r="Y95" s="154"/>
@@ -11244,7 +11662,7 @@
       <c r="Q96" s="152"/>
       <c r="R96" s="152"/>
       <c r="U96" s="154"/>
-      <c r="V96" s="154"/>
+      <c r="V96" s="501"/>
       <c r="W96" s="154"/>
       <c r="X96" s="154"/>
       <c r="Y96" s="154"/>
@@ -11304,7 +11722,7 @@
       <c r="Q97" s="152"/>
       <c r="R97" s="152"/>
       <c r="U97" s="154"/>
-      <c r="V97" s="154"/>
+      <c r="V97" s="501"/>
       <c r="W97" s="154"/>
       <c r="X97" s="154"/>
       <c r="Y97" s="154"/>
@@ -11364,30 +11782,30 @@
       <c r="Q98" s="152"/>
       <c r="R98" s="152"/>
       <c r="U98" s="154"/>
-      <c r="V98" s="154"/>
+      <c r="V98" s="501"/>
       <c r="W98" s="154"/>
       <c r="X98" s="154"/>
       <c r="Y98" s="154"/>
       <c r="Z98" s="154"/>
     </row>
     <row r="99" spans="1:26" s="254" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A99" s="409" t="s">
+      <c r="A99" s="412" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="409"/>
-      <c r="C99" s="409"/>
-      <c r="D99" s="409"/>
-      <c r="E99" s="409"/>
-      <c r="F99" s="409"/>
-      <c r="G99" s="409"/>
-      <c r="H99" s="409"/>
-      <c r="I99" s="409"/>
-      <c r="J99" s="409"/>
-      <c r="K99" s="409"/>
-      <c r="L99" s="409"/>
-      <c r="M99" s="409"/>
-      <c r="N99" s="409"/>
-      <c r="O99" s="409"/>
+      <c r="B99" s="412"/>
+      <c r="C99" s="412"/>
+      <c r="D99" s="412"/>
+      <c r="E99" s="412"/>
+      <c r="F99" s="412"/>
+      <c r="G99" s="412"/>
+      <c r="H99" s="412"/>
+      <c r="I99" s="412"/>
+      <c r="J99" s="412"/>
+      <c r="K99" s="412"/>
+      <c r="L99" s="412"/>
+      <c r="M99" s="412"/>
+      <c r="N99" s="412"/>
+      <c r="O99" s="412"/>
       <c r="P99" s="381"/>
       <c r="Q99" s="130"/>
       <c r="R99" s="253"/>
@@ -11449,7 +11867,7 @@
       <c r="Q100" s="152"/>
       <c r="R100" s="152"/>
       <c r="U100" s="154"/>
-      <c r="V100" s="154"/>
+      <c r="V100" s="501"/>
       <c r="W100" s="154"/>
       <c r="X100" s="154"/>
       <c r="Y100" s="154"/>
@@ -11489,7 +11907,7 @@
       <c r="Q101" s="152"/>
       <c r="R101" s="152"/>
       <c r="U101" s="154"/>
-      <c r="V101" s="154"/>
+      <c r="V101" s="501"/>
       <c r="W101" s="154"/>
       <c r="X101" s="154"/>
       <c r="Y101" s="154"/>
@@ -11546,7 +11964,7 @@
       <c r="Q102" s="152"/>
       <c r="R102" s="152"/>
       <c r="U102" s="154"/>
-      <c r="V102" s="154"/>
+      <c r="V102" s="501"/>
       <c r="W102" s="154"/>
       <c r="X102" s="154"/>
       <c r="Y102" s="154"/>
@@ -11603,7 +12021,7 @@
       <c r="Q103" s="152"/>
       <c r="R103" s="152"/>
       <c r="U103" s="154"/>
-      <c r="V103" s="154"/>
+      <c r="V103" s="501"/>
       <c r="W103" s="154"/>
       <c r="X103" s="154"/>
       <c r="Y103" s="154"/>
@@ -11663,7 +12081,7 @@
       <c r="Q104" s="152"/>
       <c r="R104" s="152"/>
       <c r="U104" s="154"/>
-      <c r="V104" s="154"/>
+      <c r="V104" s="501"/>
       <c r="W104" s="154"/>
       <c r="X104" s="154"/>
       <c r="Y104" s="154"/>
@@ -11705,7 +12123,7 @@
       <c r="Q105" s="152"/>
       <c r="R105" s="152"/>
       <c r="U105" s="154"/>
-      <c r="V105" s="154"/>
+      <c r="V105" s="501"/>
       <c r="W105" s="154"/>
       <c r="X105" s="154"/>
       <c r="Y105" s="154"/>
@@ -11747,7 +12165,7 @@
       <c r="Q106" s="152"/>
       <c r="R106" s="152"/>
       <c r="U106" s="154"/>
-      <c r="V106" s="154"/>
+      <c r="V106" s="501"/>
       <c r="W106" s="154"/>
       <c r="X106" s="154"/>
       <c r="Y106" s="154"/>
@@ -11789,30 +12207,30 @@
       <c r="Q107" s="152"/>
       <c r="R107" s="152"/>
       <c r="U107" s="154"/>
-      <c r="V107" s="154"/>
+      <c r="V107" s="501"/>
       <c r="W107" s="154"/>
       <c r="X107" s="154"/>
       <c r="Y107" s="154"/>
       <c r="Z107" s="154"/>
     </row>
     <row r="108" spans="1:26" s="254" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A108" s="409" t="s">
+      <c r="A108" s="412" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="409"/>
-      <c r="C108" s="409"/>
-      <c r="D108" s="409"/>
-      <c r="E108" s="409"/>
-      <c r="F108" s="409"/>
-      <c r="G108" s="409"/>
-      <c r="H108" s="409"/>
-      <c r="I108" s="409"/>
-      <c r="J108" s="409"/>
-      <c r="K108" s="409"/>
-      <c r="L108" s="409"/>
-      <c r="M108" s="409"/>
-      <c r="N108" s="409"/>
-      <c r="O108" s="409"/>
+      <c r="B108" s="412"/>
+      <c r="C108" s="412"/>
+      <c r="D108" s="412"/>
+      <c r="E108" s="412"/>
+      <c r="F108" s="412"/>
+      <c r="G108" s="412"/>
+      <c r="H108" s="412"/>
+      <c r="I108" s="412"/>
+      <c r="J108" s="412"/>
+      <c r="K108" s="412"/>
+      <c r="L108" s="412"/>
+      <c r="M108" s="412"/>
+      <c r="N108" s="412"/>
+      <c r="O108" s="412"/>
       <c r="P108" s="381"/>
       <c r="Q108" s="130"/>
       <c r="R108" s="253"/>
@@ -12107,14 +12525,14 @@
     </row>
     <row r="115" spans="1:26" s="153" customFormat="1" ht="62.4">
       <c r="A115" s="194" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B115" s="299"/>
       <c r="C115" s="140" t="s">
+        <v>755</v>
+      </c>
+      <c r="D115" s="140" t="s">
         <v>756</v>
-      </c>
-      <c r="D115" s="140" t="s">
-        <v>757</v>
       </c>
       <c r="E115" s="141"/>
       <c r="F115" s="143"/>
@@ -12153,10 +12571,10 @@
         <v>13</v>
       </c>
       <c r="C116" s="140" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D116" s="140" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E116" s="193"/>
       <c r="F116" s="302"/>
@@ -12762,45 +13180,45 @@
       <c r="Z129" s="154"/>
     </row>
     <row r="130" spans="1:26" s="268" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A130" s="408" t="s">
+      <c r="A130" s="411" t="s">
         <v>78</v>
       </c>
-      <c r="B130" s="408"/>
-      <c r="C130" s="408"/>
-      <c r="D130" s="408"/>
-      <c r="E130" s="408"/>
-      <c r="F130" s="408"/>
-      <c r="G130" s="408"/>
-      <c r="H130" s="408"/>
-      <c r="I130" s="408"/>
-      <c r="J130" s="408"/>
-      <c r="K130" s="408"/>
-      <c r="L130" s="408"/>
-      <c r="M130" s="408"/>
-      <c r="N130" s="408"/>
-      <c r="O130" s="408"/>
+      <c r="B130" s="411"/>
+      <c r="C130" s="411"/>
+      <c r="D130" s="411"/>
+      <c r="E130" s="411"/>
+      <c r="F130" s="411"/>
+      <c r="G130" s="411"/>
+      <c r="H130" s="411"/>
+      <c r="I130" s="411"/>
+      <c r="J130" s="411"/>
+      <c r="K130" s="411"/>
+      <c r="L130" s="411"/>
+      <c r="M130" s="411"/>
+      <c r="N130" s="411"/>
+      <c r="O130" s="411"/>
       <c r="P130" s="381"/>
       <c r="Q130" s="130"/>
       <c r="R130" s="267"/>
     </row>
     <row r="131" spans="1:26" s="255" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A131" s="409" t="s">
+      <c r="A131" s="412" t="s">
         <v>671</v>
       </c>
-      <c r="B131" s="409"/>
-      <c r="C131" s="409"/>
-      <c r="D131" s="409"/>
-      <c r="E131" s="409"/>
-      <c r="F131" s="409"/>
-      <c r="G131" s="409"/>
-      <c r="H131" s="409"/>
-      <c r="I131" s="409"/>
-      <c r="J131" s="409"/>
-      <c r="K131" s="409"/>
-      <c r="L131" s="409"/>
-      <c r="M131" s="409"/>
-      <c r="N131" s="409"/>
-      <c r="O131" s="409"/>
+      <c r="B131" s="412"/>
+      <c r="C131" s="412"/>
+      <c r="D131" s="412"/>
+      <c r="E131" s="412"/>
+      <c r="F131" s="412"/>
+      <c r="G131" s="412"/>
+      <c r="H131" s="412"/>
+      <c r="I131" s="412"/>
+      <c r="J131" s="412"/>
+      <c r="K131" s="412"/>
+      <c r="L131" s="412"/>
+      <c r="M131" s="412"/>
+      <c r="N131" s="412"/>
+      <c r="O131" s="412"/>
       <c r="P131" s="381"/>
       <c r="Q131" s="130"/>
       <c r="R131" s="269"/>
@@ -13004,23 +13422,23 @@
       <c r="Z135" s="154"/>
     </row>
     <row r="136" spans="1:26" s="255" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A136" s="409" t="s">
+      <c r="A136" s="412" t="s">
         <v>420</v>
       </c>
-      <c r="B136" s="409"/>
-      <c r="C136" s="409"/>
-      <c r="D136" s="409"/>
-      <c r="E136" s="409"/>
-      <c r="F136" s="409"/>
-      <c r="G136" s="409"/>
-      <c r="H136" s="409"/>
-      <c r="I136" s="409"/>
-      <c r="J136" s="409"/>
-      <c r="K136" s="409"/>
-      <c r="L136" s="409"/>
-      <c r="M136" s="409"/>
-      <c r="N136" s="409"/>
-      <c r="O136" s="409"/>
+      <c r="B136" s="412"/>
+      <c r="C136" s="412"/>
+      <c r="D136" s="412"/>
+      <c r="E136" s="412"/>
+      <c r="F136" s="412"/>
+      <c r="G136" s="412"/>
+      <c r="H136" s="412"/>
+      <c r="I136" s="412"/>
+      <c r="J136" s="412"/>
+      <c r="K136" s="412"/>
+      <c r="L136" s="412"/>
+      <c r="M136" s="412"/>
+      <c r="N136" s="412"/>
+      <c r="O136" s="412"/>
       <c r="P136" s="381"/>
       <c r="Q136" s="130"/>
       <c r="R136" s="269"/>
@@ -13361,9 +13779,9 @@
       <c r="Y143" s="154"/>
       <c r="Z143" s="154"/>
     </row>
-    <row r="144" spans="1:26" s="158" customFormat="1" ht="46.8">
+    <row r="144" spans="1:26" s="158" customFormat="1" ht="31.2">
       <c r="A144" s="194" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B144" s="299" t="s">
         <v>484</v>
@@ -13456,23 +13874,23 @@
       <c r="Z145" s="154"/>
     </row>
     <row r="146" spans="1:26" s="255" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A146" s="409" t="s">
+      <c r="A146" s="412" t="s">
         <v>453</v>
       </c>
-      <c r="B146" s="409"/>
-      <c r="C146" s="409"/>
-      <c r="D146" s="409"/>
-      <c r="E146" s="409"/>
-      <c r="F146" s="409"/>
-      <c r="G146" s="409"/>
-      <c r="H146" s="409"/>
-      <c r="I146" s="409"/>
-      <c r="J146" s="409"/>
-      <c r="K146" s="409"/>
-      <c r="L146" s="409"/>
-      <c r="M146" s="409"/>
-      <c r="N146" s="409"/>
-      <c r="O146" s="409"/>
+      <c r="B146" s="412"/>
+      <c r="C146" s="412"/>
+      <c r="D146" s="412"/>
+      <c r="E146" s="412"/>
+      <c r="F146" s="412"/>
+      <c r="G146" s="412"/>
+      <c r="H146" s="412"/>
+      <c r="I146" s="412"/>
+      <c r="J146" s="412"/>
+      <c r="K146" s="412"/>
+      <c r="L146" s="412"/>
+      <c r="M146" s="412"/>
+      <c r="N146" s="412"/>
+      <c r="O146" s="412"/>
       <c r="P146" s="381"/>
       <c r="Q146" s="130"/>
       <c r="R146" s="269"/>
@@ -13524,7 +13942,7 @@
       <c r="Q147" s="152"/>
       <c r="R147" s="152"/>
       <c r="U147" s="154"/>
-      <c r="V147" s="154"/>
+      <c r="V147" s="496"/>
       <c r="W147" s="154"/>
       <c r="X147" s="154"/>
       <c r="Y147" s="154"/>
@@ -13577,7 +13995,7 @@
       <c r="Q148" s="152"/>
       <c r="R148" s="152"/>
       <c r="U148" s="154"/>
-      <c r="V148" s="154"/>
+      <c r="V148" s="496"/>
       <c r="W148" s="154"/>
       <c r="X148" s="154"/>
       <c r="Y148" s="154"/>
@@ -13630,7 +14048,7 @@
       <c r="Q149" s="152"/>
       <c r="R149" s="152"/>
       <c r="U149" s="154"/>
-      <c r="V149" s="154"/>
+      <c r="V149" s="496"/>
       <c r="W149" s="154"/>
       <c r="X149" s="154"/>
       <c r="Y149" s="154"/>
@@ -13673,7 +14091,7 @@
       <c r="Q150" s="152"/>
       <c r="R150" s="152"/>
       <c r="U150" s="154"/>
-      <c r="V150" s="154"/>
+      <c r="V150" s="496"/>
       <c r="W150" s="154"/>
       <c r="X150" s="154"/>
       <c r="Y150" s="154"/>
@@ -13726,7 +14144,7 @@
       <c r="Q151" s="152"/>
       <c r="R151" s="152"/>
       <c r="U151" s="154"/>
-      <c r="V151" s="154"/>
+      <c r="V151" s="496"/>
       <c r="W151" s="154"/>
       <c r="X151" s="154"/>
       <c r="Y151" s="154"/>
@@ -13779,7 +14197,7 @@
       <c r="Q152" s="152"/>
       <c r="R152" s="152"/>
       <c r="U152" s="154"/>
-      <c r="V152" s="154"/>
+      <c r="V152" s="496"/>
       <c r="W152" s="154"/>
       <c r="X152" s="154"/>
       <c r="Y152" s="154"/>
@@ -13832,30 +14250,30 @@
       <c r="Q153" s="152"/>
       <c r="R153" s="152"/>
       <c r="U153" s="154"/>
-      <c r="V153" s="154"/>
+      <c r="V153" s="496"/>
       <c r="W153" s="154"/>
       <c r="X153" s="154"/>
       <c r="Y153" s="154"/>
       <c r="Z153" s="154"/>
     </row>
     <row r="154" spans="1:26" s="254" customFormat="1" ht="23.4">
-      <c r="A154" s="409" t="s">
+      <c r="A154" s="412" t="s">
         <v>127</v>
       </c>
-      <c r="B154" s="409"/>
-      <c r="C154" s="409"/>
-      <c r="D154" s="409"/>
-      <c r="E154" s="409"/>
-      <c r="F154" s="409"/>
-      <c r="G154" s="409"/>
-      <c r="H154" s="409"/>
-      <c r="I154" s="409"/>
-      <c r="J154" s="409"/>
-      <c r="K154" s="409"/>
-      <c r="L154" s="409"/>
-      <c r="M154" s="409"/>
-      <c r="N154" s="409"/>
-      <c r="O154" s="409"/>
+      <c r="B154" s="412"/>
+      <c r="C154" s="412"/>
+      <c r="D154" s="412"/>
+      <c r="E154" s="412"/>
+      <c r="F154" s="412"/>
+      <c r="G154" s="412"/>
+      <c r="H154" s="412"/>
+      <c r="I154" s="412"/>
+      <c r="J154" s="412"/>
+      <c r="K154" s="412"/>
+      <c r="L154" s="412"/>
+      <c r="M154" s="412"/>
+      <c r="N154" s="412"/>
+      <c r="O154" s="412"/>
       <c r="P154" s="382"/>
       <c r="Q154" s="253"/>
       <c r="R154" s="253"/>
@@ -13868,7 +14286,7 @@
     </row>
     <row r="155" spans="1:26" s="158" customFormat="1" ht="78">
       <c r="A155" s="194" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B155" s="299" t="s">
         <v>484</v>
@@ -13923,16 +14341,16 @@
     </row>
     <row r="156" spans="1:26" s="126" customFormat="1" ht="62.4">
       <c r="A156" s="194" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B156" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C156" s="140" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D156" s="157" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E156" s="141">
         <v>88.75</v>
@@ -13976,16 +14394,16 @@
     </row>
     <row r="157" spans="1:26" s="126" customFormat="1" ht="46.8">
       <c r="A157" s="194" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B157" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C157" s="140" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D157" s="157" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E157" s="141">
         <v>88.75</v>
@@ -14029,7 +14447,7 @@
     </row>
     <row r="158" spans="1:26" s="158" customFormat="1" ht="78">
       <c r="A158" s="194" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B158" s="299" t="s">
         <v>484</v>
@@ -14126,23 +14544,23 @@
       <c r="R159" s="213"/>
     </row>
     <row r="160" spans="1:26" s="153" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A160" s="408" t="s">
+      <c r="A160" s="411" t="s">
         <v>296</v>
       </c>
-      <c r="B160" s="408"/>
-      <c r="C160" s="408"/>
-      <c r="D160" s="408"/>
-      <c r="E160" s="408"/>
-      <c r="F160" s="408"/>
-      <c r="G160" s="408"/>
-      <c r="H160" s="408"/>
-      <c r="I160" s="408"/>
-      <c r="J160" s="408"/>
-      <c r="K160" s="408"/>
-      <c r="L160" s="408"/>
-      <c r="M160" s="408"/>
-      <c r="N160" s="408"/>
-      <c r="O160" s="408"/>
+      <c r="B160" s="411"/>
+      <c r="C160" s="411"/>
+      <c r="D160" s="411"/>
+      <c r="E160" s="411"/>
+      <c r="F160" s="411"/>
+      <c r="G160" s="411"/>
+      <c r="H160" s="411"/>
+      <c r="I160" s="411"/>
+      <c r="J160" s="411"/>
+      <c r="K160" s="411"/>
+      <c r="L160" s="411"/>
+      <c r="M160" s="411"/>
+      <c r="N160" s="411"/>
+      <c r="O160" s="411"/>
       <c r="P160" s="382"/>
       <c r="Q160" s="152"/>
       <c r="R160" s="152"/>
@@ -14207,16 +14625,16 @@
     </row>
     <row r="162" spans="1:26" s="158" customFormat="1" ht="62.4">
       <c r="A162" s="194" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B162" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C162" s="140" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D162" s="140" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E162" s="193"/>
       <c r="F162" s="302"/>
@@ -14241,16 +14659,16 @@
     </row>
     <row r="163" spans="1:26" s="158" customFormat="1" ht="56.25" customHeight="1">
       <c r="A163" s="194" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B163" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C163" s="140" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D163" s="140" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E163" s="193">
         <v>299.99</v>
@@ -14293,16 +14711,16 @@
     </row>
     <row r="164" spans="1:26" s="158" customFormat="1" ht="99" customHeight="1">
       <c r="A164" s="194" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B164" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C164" s="140" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D164" s="140" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E164" s="193">
         <f>122+122</f>
@@ -14346,16 +14764,16 @@
     </row>
     <row r="165" spans="1:26" s="158" customFormat="1" ht="31.2">
       <c r="A165" s="194" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B165" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C165" s="140" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D165" s="140" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E165" s="193">
         <v>122</v>
@@ -14450,23 +14868,23 @@
       <c r="R166" s="213"/>
     </row>
     <row r="167" spans="1:26" s="254" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A167" s="410" t="s">
+      <c r="A167" s="413" t="s">
         <v>86</v>
       </c>
-      <c r="B167" s="410"/>
-      <c r="C167" s="410"/>
-      <c r="D167" s="410"/>
-      <c r="E167" s="410"/>
-      <c r="F167" s="410"/>
-      <c r="G167" s="410"/>
-      <c r="H167" s="410"/>
-      <c r="I167" s="410"/>
-      <c r="J167" s="410"/>
-      <c r="K167" s="410"/>
-      <c r="L167" s="410"/>
-      <c r="M167" s="410"/>
-      <c r="N167" s="410"/>
-      <c r="O167" s="410"/>
+      <c r="B167" s="413"/>
+      <c r="C167" s="413"/>
+      <c r="D167" s="413"/>
+      <c r="E167" s="413"/>
+      <c r="F167" s="413"/>
+      <c r="G167" s="413"/>
+      <c r="H167" s="413"/>
+      <c r="I167" s="413"/>
+      <c r="J167" s="413"/>
+      <c r="K167" s="413"/>
+      <c r="L167" s="413"/>
+      <c r="M167" s="413"/>
+      <c r="N167" s="413"/>
+      <c r="O167" s="413"/>
       <c r="P167" s="381"/>
       <c r="Q167" s="130"/>
       <c r="R167" s="253"/>
@@ -14478,23 +14896,23 @@
       <c r="Z167" s="255"/>
     </row>
     <row r="168" spans="1:26" s="254" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A168" s="423" t="s">
+      <c r="A168" s="426" t="s">
         <v>419</v>
       </c>
-      <c r="B168" s="423"/>
-      <c r="C168" s="423"/>
-      <c r="D168" s="423"/>
-      <c r="E168" s="423"/>
-      <c r="F168" s="423"/>
-      <c r="G168" s="423"/>
-      <c r="H168" s="423"/>
-      <c r="I168" s="423"/>
-      <c r="J168" s="423"/>
-      <c r="K168" s="423"/>
-      <c r="L168" s="423"/>
-      <c r="M168" s="423"/>
-      <c r="N168" s="423"/>
-      <c r="O168" s="423"/>
+      <c r="B168" s="426"/>
+      <c r="C168" s="426"/>
+      <c r="D168" s="426"/>
+      <c r="E168" s="426"/>
+      <c r="F168" s="426"/>
+      <c r="G168" s="426"/>
+      <c r="H168" s="426"/>
+      <c r="I168" s="426"/>
+      <c r="J168" s="426"/>
+      <c r="K168" s="426"/>
+      <c r="L168" s="426"/>
+      <c r="M168" s="426"/>
+      <c r="N168" s="426"/>
+      <c r="O168" s="426"/>
       <c r="P168" s="381"/>
       <c r="Q168" s="130"/>
       <c r="R168" s="253"/>
@@ -14507,16 +14925,16 @@
     </row>
     <row r="169" spans="1:26" s="254" customFormat="1" ht="92.25" customHeight="1">
       <c r="A169" s="194" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B169" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C169" s="223" t="s">
+        <v>935</v>
+      </c>
+      <c r="D169" s="188" t="s">
         <v>936</v>
-      </c>
-      <c r="D169" s="188" t="s">
-        <v>937</v>
       </c>
       <c r="E169" s="406"/>
       <c r="F169" s="406"/>
@@ -14555,13 +14973,13 @@
     </row>
     <row r="170" spans="1:26" s="254" customFormat="1" ht="96" customHeight="1">
       <c r="A170" s="194" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B170" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C170" s="223" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D170" s="188" t="s">
         <v>379</v>
@@ -14602,23 +15020,23 @@
       <c r="Z170" s="255"/>
     </row>
     <row r="171" spans="1:26" s="129" customFormat="1" ht="30" customHeight="1">
-      <c r="A171" s="411" t="s">
+      <c r="A171" s="414" t="s">
         <v>639</v>
       </c>
-      <c r="B171" s="411"/>
-      <c r="C171" s="411"/>
-      <c r="D171" s="411"/>
-      <c r="E171" s="411"/>
-      <c r="F171" s="411"/>
-      <c r="G171" s="411"/>
-      <c r="H171" s="411"/>
-      <c r="I171" s="411"/>
-      <c r="J171" s="411"/>
-      <c r="K171" s="411"/>
-      <c r="L171" s="411"/>
-      <c r="M171" s="411"/>
-      <c r="N171" s="411"/>
-      <c r="O171" s="411"/>
+      <c r="B171" s="414"/>
+      <c r="C171" s="414"/>
+      <c r="D171" s="414"/>
+      <c r="E171" s="414"/>
+      <c r="F171" s="414"/>
+      <c r="G171" s="414"/>
+      <c r="H171" s="414"/>
+      <c r="I171" s="414"/>
+      <c r="J171" s="414"/>
+      <c r="K171" s="414"/>
+      <c r="L171" s="414"/>
+      <c r="M171" s="414"/>
+      <c r="N171" s="414"/>
+      <c r="O171" s="414"/>
       <c r="P171" s="382"/>
       <c r="Q171" s="276"/>
       <c r="R171" s="130"/>
@@ -15199,39 +15617,39 @@
       <c r="R183" s="213"/>
     </row>
     <row r="184" spans="1:18" s="129" customFormat="1" ht="30" customHeight="1">
-      <c r="A184" s="411" t="s">
+      <c r="A184" s="414" t="s">
         <v>730</v>
       </c>
-      <c r="B184" s="411"/>
-      <c r="C184" s="411"/>
-      <c r="D184" s="411"/>
-      <c r="E184" s="411"/>
-      <c r="F184" s="411"/>
-      <c r="G184" s="411"/>
-      <c r="H184" s="411"/>
-      <c r="I184" s="411"/>
-      <c r="J184" s="411"/>
-      <c r="K184" s="411"/>
-      <c r="L184" s="411"/>
-      <c r="M184" s="411"/>
-      <c r="N184" s="411"/>
-      <c r="O184" s="411"/>
+      <c r="B184" s="414"/>
+      <c r="C184" s="414"/>
+      <c r="D184" s="414"/>
+      <c r="E184" s="414"/>
+      <c r="F184" s="414"/>
+      <c r="G184" s="414"/>
+      <c r="H184" s="414"/>
+      <c r="I184" s="414"/>
+      <c r="J184" s="414"/>
+      <c r="K184" s="414"/>
+      <c r="L184" s="414"/>
+      <c r="M184" s="414"/>
+      <c r="N184" s="414"/>
+      <c r="O184" s="414"/>
       <c r="P184" s="382"/>
       <c r="Q184" s="276"/>
       <c r="R184" s="130"/>
     </row>
     <row r="185" spans="1:18" s="129" customFormat="1" ht="30" customHeight="1">
       <c r="A185" s="378" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B185" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C185" s="140" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D185" s="140" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E185" s="193">
         <v>339</v>
@@ -15272,16 +15690,16 @@
     </row>
     <row r="186" spans="1:18" s="126" customFormat="1">
       <c r="A186" s="378" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B186" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C186" s="140" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D186" s="140" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E186" s="193">
         <v>288</v>
@@ -15322,16 +15740,16 @@
     </row>
     <row r="187" spans="1:18" s="126" customFormat="1">
       <c r="A187" s="378" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B187" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="140" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D187" s="140" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E187" s="193"/>
       <c r="F187" s="302"/>
@@ -15360,16 +15778,16 @@
     </row>
     <row r="188" spans="1:18" s="171" customFormat="1" ht="27" customHeight="1">
       <c r="A188" s="378" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B188" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C188" s="140" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D188" s="140" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E188" s="193">
         <v>289</v>
@@ -15410,16 +15828,16 @@
     </row>
     <row r="189" spans="1:18" s="126" customFormat="1">
       <c r="A189" s="378" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B189" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C189" s="140" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D189" s="140" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E189" s="193"/>
       <c r="F189" s="302"/>
@@ -15448,16 +15866,16 @@
     </row>
     <row r="190" spans="1:18" s="126" customFormat="1">
       <c r="A190" s="378" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B190" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C190" s="140" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D190" s="140" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E190" s="193"/>
       <c r="F190" s="302"/>
@@ -15486,16 +15904,16 @@
     </row>
     <row r="191" spans="1:18" s="129" customFormat="1">
       <c r="A191" s="378" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B191" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C191" s="140" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D191" s="140" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E191" s="193"/>
       <c r="F191" s="302"/>
@@ -15524,16 +15942,16 @@
     </row>
     <row r="192" spans="1:18" s="126" customFormat="1">
       <c r="A192" s="378" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B192" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C192" s="140" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D192" s="140" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E192" s="193">
         <v>289</v>
@@ -15574,16 +15992,16 @@
     </row>
     <row r="193" spans="1:18" s="126" customFormat="1">
       <c r="A193" s="378" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B193" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C193" s="140" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D193" s="140" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E193" s="193">
         <v>289</v>
@@ -15623,39 +16041,39 @@
       <c r="R193" s="127"/>
     </row>
     <row r="194" spans="1:18" s="158" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A194" s="411" t="s">
-        <v>925</v>
-      </c>
-      <c r="B194" s="411"/>
-      <c r="C194" s="411"/>
-      <c r="D194" s="411"/>
-      <c r="E194" s="411"/>
-      <c r="F194" s="411"/>
-      <c r="G194" s="411"/>
-      <c r="H194" s="411"/>
-      <c r="I194" s="411"/>
-      <c r="J194" s="411"/>
-      <c r="K194" s="411"/>
-      <c r="L194" s="411"/>
-      <c r="M194" s="411"/>
-      <c r="N194" s="411"/>
-      <c r="O194" s="411"/>
+      <c r="A194" s="414" t="s">
+        <v>924</v>
+      </c>
+      <c r="B194" s="414"/>
+      <c r="C194" s="414"/>
+      <c r="D194" s="414"/>
+      <c r="E194" s="414"/>
+      <c r="F194" s="414"/>
+      <c r="G194" s="414"/>
+      <c r="H194" s="414"/>
+      <c r="I194" s="414"/>
+      <c r="J194" s="414"/>
+      <c r="K194" s="414"/>
+      <c r="L194" s="414"/>
+      <c r="M194" s="414"/>
+      <c r="N194" s="414"/>
+      <c r="O194" s="414"/>
       <c r="P194" s="381"/>
       <c r="Q194" s="213"/>
       <c r="R194" s="213"/>
     </row>
     <row r="195" spans="1:18" s="158" customFormat="1" ht="32.25" customHeight="1">
       <c r="A195" s="222" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B195" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C195" s="140" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D195" s="140" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E195" s="193"/>
       <c r="F195" s="302"/>
@@ -15692,16 +16110,16 @@
     </row>
     <row r="196" spans="1:18" s="126" customFormat="1" ht="31.2">
       <c r="A196" s="222" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B196" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C196" s="140" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D196" s="140" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E196" s="193"/>
       <c r="F196" s="302"/>
@@ -15738,16 +16156,16 @@
     </row>
     <row r="197" spans="1:18" s="126" customFormat="1" ht="31.2">
       <c r="A197" s="219" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B197" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C197" s="140" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D197" s="140" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E197" s="193"/>
       <c r="F197" s="302"/>
@@ -15775,23 +16193,23 @@
       <c r="R197" s="127"/>
     </row>
     <row r="198" spans="1:18" s="158" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A198" s="411" t="s">
+      <c r="A198" s="414" t="s">
         <v>380</v>
       </c>
-      <c r="B198" s="411"/>
-      <c r="C198" s="411"/>
-      <c r="D198" s="411"/>
-      <c r="E198" s="411"/>
-      <c r="F198" s="411"/>
-      <c r="G198" s="411"/>
-      <c r="H198" s="411"/>
-      <c r="I198" s="411"/>
-      <c r="J198" s="411"/>
-      <c r="K198" s="411"/>
-      <c r="L198" s="411"/>
-      <c r="M198" s="411"/>
-      <c r="N198" s="411"/>
-      <c r="O198" s="411"/>
+      <c r="B198" s="414"/>
+      <c r="C198" s="414"/>
+      <c r="D198" s="414"/>
+      <c r="E198" s="414"/>
+      <c r="F198" s="414"/>
+      <c r="G198" s="414"/>
+      <c r="H198" s="414"/>
+      <c r="I198" s="414"/>
+      <c r="J198" s="414"/>
+      <c r="K198" s="414"/>
+      <c r="L198" s="414"/>
+      <c r="M198" s="414"/>
+      <c r="N198" s="414"/>
+      <c r="O198" s="414"/>
       <c r="P198" s="381"/>
       <c r="Q198" s="213"/>
       <c r="R198" s="213"/>
@@ -15909,39 +16327,39 @@
       <c r="R200" s="127"/>
     </row>
     <row r="201" spans="1:18" s="361" customFormat="1" ht="22.8">
-      <c r="A201" s="409" t="s">
+      <c r="A201" s="412" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="409"/>
-      <c r="C201" s="409"/>
-      <c r="D201" s="409"/>
-      <c r="E201" s="409"/>
-      <c r="F201" s="409"/>
-      <c r="G201" s="409"/>
-      <c r="H201" s="409"/>
-      <c r="I201" s="409"/>
-      <c r="J201" s="409"/>
-      <c r="K201" s="409"/>
-      <c r="L201" s="409"/>
-      <c r="M201" s="409"/>
-      <c r="N201" s="409"/>
-      <c r="O201" s="409"/>
+      <c r="B201" s="412"/>
+      <c r="C201" s="412"/>
+      <c r="D201" s="412"/>
+      <c r="E201" s="412"/>
+      <c r="F201" s="412"/>
+      <c r="G201" s="412"/>
+      <c r="H201" s="412"/>
+      <c r="I201" s="412"/>
+      <c r="J201" s="412"/>
+      <c r="K201" s="412"/>
+      <c r="L201" s="412"/>
+      <c r="M201" s="412"/>
+      <c r="N201" s="412"/>
+      <c r="O201" s="412"/>
       <c r="P201" s="381"/>
       <c r="Q201" s="220"/>
       <c r="R201" s="360"/>
     </row>
-    <row r="202" spans="1:18" s="349" customFormat="1" ht="78">
+    <row r="202" spans="1:18" s="349" customFormat="1" ht="62.4">
       <c r="A202" s="194" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B202" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C202" s="140" t="s">
+        <v>788</v>
+      </c>
+      <c r="D202" s="140" t="s">
         <v>789</v>
-      </c>
-      <c r="D202" s="140" t="s">
-        <v>790</v>
       </c>
       <c r="E202" s="193"/>
       <c r="F202" s="302"/>
@@ -15968,13 +16386,13 @@
     </row>
     <row r="203" spans="1:18" s="126" customFormat="1" ht="31.2">
       <c r="A203" s="194" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B203" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C203" s="140" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D203" s="140" t="s">
         <v>367</v>
@@ -16021,23 +16439,23 @@
       <c r="R203" s="127"/>
     </row>
     <row r="204" spans="1:18" s="126" customFormat="1" ht="22.8">
-      <c r="A204" s="409" t="s">
-        <v>783</v>
-      </c>
-      <c r="B204" s="409"/>
-      <c r="C204" s="409"/>
-      <c r="D204" s="409"/>
-      <c r="E204" s="409"/>
-      <c r="F204" s="409"/>
-      <c r="G204" s="409"/>
-      <c r="H204" s="409"/>
-      <c r="I204" s="409"/>
-      <c r="J204" s="409"/>
-      <c r="K204" s="409"/>
-      <c r="L204" s="409"/>
-      <c r="M204" s="409"/>
-      <c r="N204" s="409"/>
-      <c r="O204" s="409"/>
+      <c r="A204" s="412" t="s">
+        <v>782</v>
+      </c>
+      <c r="B204" s="412"/>
+      <c r="C204" s="412"/>
+      <c r="D204" s="412"/>
+      <c r="E204" s="412"/>
+      <c r="F204" s="412"/>
+      <c r="G204" s="412"/>
+      <c r="H204" s="412"/>
+      <c r="I204" s="412"/>
+      <c r="J204" s="412"/>
+      <c r="K204" s="412"/>
+      <c r="L204" s="412"/>
+      <c r="M204" s="412"/>
+      <c r="N204" s="412"/>
+      <c r="O204" s="412"/>
       <c r="P204" s="381"/>
       <c r="Q204" s="127"/>
       <c r="R204" s="127"/>
@@ -16050,7 +16468,7 @@
         <v>13</v>
       </c>
       <c r="C205" s="140" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D205" s="140"/>
       <c r="E205" s="193">
@@ -16101,7 +16519,7 @@
       </c>
       <c r="B206" s="299"/>
       <c r="C206" s="140" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D206" s="140"/>
       <c r="E206" s="193">
@@ -16147,11 +16565,11 @@
     </row>
     <row r="207" spans="1:18" s="126" customFormat="1" ht="32.25" customHeight="1">
       <c r="A207" s="194" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B207" s="299"/>
       <c r="C207" s="140" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D207" s="140"/>
       <c r="E207" s="193">
@@ -16196,23 +16614,23 @@
       <c r="R207" s="127"/>
     </row>
     <row r="208" spans="1:18" s="126" customFormat="1" ht="22.8">
-      <c r="A208" s="409" t="s">
+      <c r="A208" s="412" t="s">
         <v>620</v>
       </c>
-      <c r="B208" s="409"/>
-      <c r="C208" s="409"/>
-      <c r="D208" s="409"/>
-      <c r="E208" s="409"/>
-      <c r="F208" s="409"/>
-      <c r="G208" s="409"/>
-      <c r="H208" s="409"/>
-      <c r="I208" s="409"/>
-      <c r="J208" s="409"/>
-      <c r="K208" s="409"/>
-      <c r="L208" s="409"/>
-      <c r="M208" s="409"/>
-      <c r="N208" s="409"/>
-      <c r="O208" s="409"/>
+      <c r="B208" s="412"/>
+      <c r="C208" s="412"/>
+      <c r="D208" s="412"/>
+      <c r="E208" s="412"/>
+      <c r="F208" s="412"/>
+      <c r="G208" s="412"/>
+      <c r="H208" s="412"/>
+      <c r="I208" s="412"/>
+      <c r="J208" s="412"/>
+      <c r="K208" s="412"/>
+      <c r="L208" s="412"/>
+      <c r="M208" s="412"/>
+      <c r="N208" s="412"/>
+      <c r="O208" s="412"/>
       <c r="P208" s="381"/>
       <c r="Q208" s="127"/>
       <c r="R208" s="127"/>
@@ -16373,23 +16791,23 @@
       <c r="R211" s="127"/>
     </row>
     <row r="212" spans="1:18" s="126" customFormat="1" ht="22.8" hidden="1">
-      <c r="A212" s="409" t="s">
+      <c r="A212" s="412" t="s">
         <v>365</v>
       </c>
-      <c r="B212" s="409"/>
-      <c r="C212" s="409"/>
-      <c r="D212" s="409"/>
-      <c r="E212" s="409"/>
-      <c r="F212" s="409"/>
-      <c r="G212" s="409"/>
-      <c r="H212" s="409"/>
-      <c r="I212" s="409"/>
-      <c r="J212" s="409"/>
-      <c r="K212" s="409"/>
-      <c r="L212" s="409"/>
-      <c r="M212" s="409"/>
-      <c r="N212" s="409"/>
-      <c r="O212" s="409"/>
+      <c r="B212" s="412"/>
+      <c r="C212" s="412"/>
+      <c r="D212" s="412"/>
+      <c r="E212" s="412"/>
+      <c r="F212" s="412"/>
+      <c r="G212" s="412"/>
+      <c r="H212" s="412"/>
+      <c r="I212" s="412"/>
+      <c r="J212" s="412"/>
+      <c r="K212" s="412"/>
+      <c r="L212" s="412"/>
+      <c r="M212" s="412"/>
+      <c r="N212" s="412"/>
+      <c r="O212" s="412"/>
       <c r="P212" s="381"/>
       <c r="Q212" s="127"/>
       <c r="R212" s="127"/>
@@ -16551,23 +16969,23 @@
       <c r="R215" s="127"/>
     </row>
     <row r="216" spans="1:18" s="126" customFormat="1" ht="22.8" hidden="1">
-      <c r="A216" s="409" t="s">
+      <c r="A216" s="412" t="s">
         <v>364</v>
       </c>
-      <c r="B216" s="409"/>
-      <c r="C216" s="409"/>
-      <c r="D216" s="409"/>
-      <c r="E216" s="409"/>
-      <c r="F216" s="409"/>
-      <c r="G216" s="409"/>
-      <c r="H216" s="409"/>
-      <c r="I216" s="409"/>
-      <c r="J216" s="409"/>
-      <c r="K216" s="409"/>
-      <c r="L216" s="409"/>
-      <c r="M216" s="409"/>
-      <c r="N216" s="409"/>
-      <c r="O216" s="409"/>
+      <c r="B216" s="412"/>
+      <c r="C216" s="412"/>
+      <c r="D216" s="412"/>
+      <c r="E216" s="412"/>
+      <c r="F216" s="412"/>
+      <c r="G216" s="412"/>
+      <c r="H216" s="412"/>
+      <c r="I216" s="412"/>
+      <c r="J216" s="412"/>
+      <c r="K216" s="412"/>
+      <c r="L216" s="412"/>
+      <c r="M216" s="412"/>
+      <c r="N216" s="412"/>
+      <c r="O216" s="412"/>
       <c r="P216" s="381"/>
       <c r="Q216" s="127"/>
       <c r="R216" s="127"/>
@@ -16729,23 +17147,23 @@
       <c r="R219" s="127"/>
     </row>
     <row r="220" spans="1:18" s="126" customFormat="1" ht="22.8" hidden="1">
-      <c r="A220" s="409" t="s">
+      <c r="A220" s="412" t="s">
         <v>363</v>
       </c>
-      <c r="B220" s="409"/>
-      <c r="C220" s="409"/>
-      <c r="D220" s="409"/>
-      <c r="E220" s="409"/>
-      <c r="F220" s="409"/>
-      <c r="G220" s="409"/>
-      <c r="H220" s="409"/>
-      <c r="I220" s="409"/>
-      <c r="J220" s="409"/>
-      <c r="K220" s="409"/>
-      <c r="L220" s="409"/>
-      <c r="M220" s="409"/>
-      <c r="N220" s="409"/>
-      <c r="O220" s="409"/>
+      <c r="B220" s="412"/>
+      <c r="C220" s="412"/>
+      <c r="D220" s="412"/>
+      <c r="E220" s="412"/>
+      <c r="F220" s="412"/>
+      <c r="G220" s="412"/>
+      <c r="H220" s="412"/>
+      <c r="I220" s="412"/>
+      <c r="J220" s="412"/>
+      <c r="K220" s="412"/>
+      <c r="L220" s="412"/>
+      <c r="M220" s="412"/>
+      <c r="N220" s="412"/>
+      <c r="O220" s="412"/>
       <c r="P220" s="381"/>
       <c r="Q220" s="127"/>
       <c r="R220" s="127"/>
@@ -16913,23 +17331,23 @@
       <c r="R223" s="127"/>
     </row>
     <row r="224" spans="1:18" s="126" customFormat="1" ht="22.8" hidden="1">
-      <c r="A224" s="413" t="s">
+      <c r="A224" s="416" t="s">
         <v>89</v>
       </c>
-      <c r="B224" s="413"/>
-      <c r="C224" s="413"/>
-      <c r="D224" s="413"/>
-      <c r="E224" s="413"/>
-      <c r="F224" s="413"/>
-      <c r="G224" s="413"/>
-      <c r="H224" s="413"/>
-      <c r="I224" s="413"/>
-      <c r="J224" s="413"/>
-      <c r="K224" s="413"/>
-      <c r="L224" s="413"/>
-      <c r="M224" s="413"/>
-      <c r="N224" s="413"/>
-      <c r="O224" s="413"/>
+      <c r="B224" s="416"/>
+      <c r="C224" s="416"/>
+      <c r="D224" s="416"/>
+      <c r="E224" s="416"/>
+      <c r="F224" s="416"/>
+      <c r="G224" s="416"/>
+      <c r="H224" s="416"/>
+      <c r="I224" s="416"/>
+      <c r="J224" s="416"/>
+      <c r="K224" s="416"/>
+      <c r="L224" s="416"/>
+      <c r="M224" s="416"/>
+      <c r="N224" s="416"/>
+      <c r="O224" s="416"/>
       <c r="P224" s="381"/>
       <c r="Q224" s="127"/>
       <c r="R224" s="127"/>
@@ -17065,23 +17483,23 @@
       <c r="R229" s="213"/>
     </row>
     <row r="230" spans="1:26" s="158" customFormat="1" ht="22.8">
-      <c r="A230" s="409" t="s">
+      <c r="A230" s="412" t="s">
         <v>679</v>
       </c>
-      <c r="B230" s="409"/>
-      <c r="C230" s="409"/>
-      <c r="D230" s="409"/>
-      <c r="E230" s="409"/>
-      <c r="F230" s="409"/>
-      <c r="G230" s="409"/>
-      <c r="H230" s="409"/>
-      <c r="I230" s="409"/>
-      <c r="J230" s="409"/>
-      <c r="K230" s="409"/>
-      <c r="L230" s="409"/>
-      <c r="M230" s="409"/>
-      <c r="N230" s="409"/>
-      <c r="O230" s="409"/>
+      <c r="B230" s="412"/>
+      <c r="C230" s="412"/>
+      <c r="D230" s="412"/>
+      <c r="E230" s="412"/>
+      <c r="F230" s="412"/>
+      <c r="G230" s="412"/>
+      <c r="H230" s="412"/>
+      <c r="I230" s="412"/>
+      <c r="J230" s="412"/>
+      <c r="K230" s="412"/>
+      <c r="L230" s="412"/>
+      <c r="M230" s="412"/>
+      <c r="N230" s="412"/>
+      <c r="O230" s="412"/>
       <c r="P230" s="381"/>
       <c r="Q230" s="213"/>
       <c r="R230" s="213"/>
@@ -17198,11 +17616,11 @@
     </row>
     <row r="233" spans="1:26" s="171" customFormat="1" ht="78">
       <c r="A233" s="194" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B233" s="299"/>
       <c r="C233" s="140" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D233" s="148" t="s">
         <v>555</v>
@@ -17308,13 +17726,13 @@
     </row>
     <row r="235" spans="1:26" s="153" customFormat="1" ht="93.6">
       <c r="A235" s="194" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B235" s="299" t="s">
         <v>13</v>
       </c>
       <c r="C235" s="140" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D235" s="148" t="s">
         <v>685</v>
@@ -17428,16 +17846,16 @@
     </row>
     <row r="237" spans="1:26" s="153" customFormat="1" ht="156">
       <c r="A237" s="194" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B237" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C237" s="140" t="s">
+        <v>871</v>
+      </c>
+      <c r="D237" s="148" t="s">
         <v>872</v>
-      </c>
-      <c r="D237" s="148" t="s">
-        <v>873</v>
       </c>
       <c r="E237" s="141">
         <v>308</v>
@@ -17490,16 +17908,16 @@
     </row>
     <row r="238" spans="1:26" s="153" customFormat="1" ht="93.6">
       <c r="A238" s="194" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B238" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C238" s="140" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D238" s="148" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E238" s="141">
         <v>308</v>
@@ -17551,23 +17969,23 @@
       <c r="Z238" s="154"/>
     </row>
     <row r="239" spans="1:26" s="153" customFormat="1" ht="23.4">
-      <c r="A239" s="409" t="s">
+      <c r="A239" s="412" t="s">
         <v>561</v>
       </c>
-      <c r="B239" s="409"/>
-      <c r="C239" s="409"/>
-      <c r="D239" s="409"/>
-      <c r="E239" s="409"/>
-      <c r="F239" s="409"/>
-      <c r="G239" s="409"/>
-      <c r="H239" s="409"/>
-      <c r="I239" s="409"/>
-      <c r="J239" s="409"/>
-      <c r="K239" s="409"/>
-      <c r="L239" s="409"/>
-      <c r="M239" s="409"/>
-      <c r="N239" s="409"/>
-      <c r="O239" s="409"/>
+      <c r="B239" s="412"/>
+      <c r="C239" s="412"/>
+      <c r="D239" s="412"/>
+      <c r="E239" s="412"/>
+      <c r="F239" s="412"/>
+      <c r="G239" s="412"/>
+      <c r="H239" s="412"/>
+      <c r="I239" s="412"/>
+      <c r="J239" s="412"/>
+      <c r="K239" s="412"/>
+      <c r="L239" s="412"/>
+      <c r="M239" s="412"/>
+      <c r="N239" s="412"/>
+      <c r="O239" s="412"/>
       <c r="P239" s="382"/>
       <c r="Q239" s="152"/>
       <c r="R239" s="152"/>
@@ -17741,23 +18159,23 @@
       <c r="R242" s="277"/>
     </row>
     <row r="243" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A243" s="421" t="s">
-        <v>927</v>
-      </c>
-      <c r="B243" s="421"/>
-      <c r="C243" s="421"/>
-      <c r="D243" s="421"/>
-      <c r="E243" s="421"/>
-      <c r="F243" s="421"/>
-      <c r="G243" s="421"/>
-      <c r="H243" s="421"/>
-      <c r="I243" s="421"/>
-      <c r="J243" s="421"/>
-      <c r="K243" s="421"/>
-      <c r="L243" s="421"/>
-      <c r="M243" s="421"/>
-      <c r="N243" s="421"/>
-      <c r="O243" s="421"/>
+      <c r="A243" s="424" t="s">
+        <v>926</v>
+      </c>
+      <c r="B243" s="424"/>
+      <c r="C243" s="424"/>
+      <c r="D243" s="424"/>
+      <c r="E243" s="424"/>
+      <c r="F243" s="424"/>
+      <c r="G243" s="424"/>
+      <c r="H243" s="424"/>
+      <c r="I243" s="424"/>
+      <c r="J243" s="424"/>
+      <c r="K243" s="424"/>
+      <c r="L243" s="424"/>
+      <c r="M243" s="424"/>
+      <c r="N243" s="424"/>
+      <c r="O243" s="424"/>
       <c r="P243" s="382"/>
       <c r="Q243" s="152"/>
       <c r="R243" s="152"/>
@@ -17769,23 +18187,23 @@
       <c r="Z243" s="154"/>
     </row>
     <row r="244" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A244" s="409" t="s">
+      <c r="A244" s="412" t="s">
         <v>383</v>
       </c>
-      <c r="B244" s="409"/>
-      <c r="C244" s="409"/>
-      <c r="D244" s="409"/>
-      <c r="E244" s="409"/>
-      <c r="F244" s="409"/>
-      <c r="G244" s="409"/>
-      <c r="H244" s="409"/>
-      <c r="I244" s="409"/>
-      <c r="J244" s="409"/>
-      <c r="K244" s="409"/>
-      <c r="L244" s="409"/>
-      <c r="M244" s="409"/>
-      <c r="N244" s="409"/>
-      <c r="O244" s="409"/>
+      <c r="B244" s="412"/>
+      <c r="C244" s="412"/>
+      <c r="D244" s="412"/>
+      <c r="E244" s="412"/>
+      <c r="F244" s="412"/>
+      <c r="G244" s="412"/>
+      <c r="H244" s="412"/>
+      <c r="I244" s="412"/>
+      <c r="J244" s="412"/>
+      <c r="K244" s="412"/>
+      <c r="L244" s="412"/>
+      <c r="M244" s="412"/>
+      <c r="N244" s="412"/>
+      <c r="O244" s="412"/>
       <c r="P244" s="382"/>
       <c r="Q244" s="152"/>
       <c r="R244" s="152"/>
@@ -18131,20 +18549,20 @@
       <c r="Z250" s="154"/>
     </row>
     <row r="251" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A251" s="418" t="s">
+      <c r="A251" s="421" t="s">
         <v>350</v>
       </c>
-      <c r="B251" s="419"/>
-      <c r="C251" s="419"/>
-      <c r="D251" s="419"/>
-      <c r="E251" s="419"/>
-      <c r="F251" s="419"/>
-      <c r="G251" s="419"/>
-      <c r="H251" s="419"/>
-      <c r="I251" s="419"/>
-      <c r="J251" s="419"/>
-      <c r="K251" s="419"/>
-      <c r="L251" s="420"/>
+      <c r="B251" s="422"/>
+      <c r="C251" s="422"/>
+      <c r="D251" s="422"/>
+      <c r="E251" s="422"/>
+      <c r="F251" s="422"/>
+      <c r="G251" s="422"/>
+      <c r="H251" s="422"/>
+      <c r="I251" s="422"/>
+      <c r="J251" s="422"/>
+      <c r="K251" s="422"/>
+      <c r="L251" s="423"/>
       <c r="M251" s="143"/>
       <c r="N251" s="197"/>
       <c r="O251" s="165"/>
@@ -18159,23 +18577,23 @@
       <c r="Z251" s="154"/>
     </row>
     <row r="252" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A252" s="409" t="s">
+      <c r="A252" s="412" t="s">
         <v>584</v>
       </c>
-      <c r="B252" s="409"/>
-      <c r="C252" s="409"/>
-      <c r="D252" s="409"/>
-      <c r="E252" s="409"/>
-      <c r="F252" s="409"/>
-      <c r="G252" s="409"/>
-      <c r="H252" s="409"/>
-      <c r="I252" s="409"/>
-      <c r="J252" s="409"/>
-      <c r="K252" s="409"/>
-      <c r="L252" s="409"/>
-      <c r="M252" s="409"/>
-      <c r="N252" s="409"/>
-      <c r="O252" s="409"/>
+      <c r="B252" s="412"/>
+      <c r="C252" s="412"/>
+      <c r="D252" s="412"/>
+      <c r="E252" s="412"/>
+      <c r="F252" s="412"/>
+      <c r="G252" s="412"/>
+      <c r="H252" s="412"/>
+      <c r="I252" s="412"/>
+      <c r="J252" s="412"/>
+      <c r="K252" s="412"/>
+      <c r="L252" s="412"/>
+      <c r="M252" s="412"/>
+      <c r="N252" s="412"/>
+      <c r="O252" s="412"/>
       <c r="P252" s="382"/>
       <c r="Q252" s="152"/>
       <c r="R252" s="152"/>
@@ -18561,23 +18979,23 @@
       <c r="Z259" s="154"/>
     </row>
     <row r="260" spans="1:26" s="153" customFormat="1" ht="23.4">
-      <c r="A260" s="409" t="s">
-        <v>928</v>
-      </c>
-      <c r="B260" s="409"/>
-      <c r="C260" s="409"/>
-      <c r="D260" s="409"/>
-      <c r="E260" s="409"/>
-      <c r="F260" s="409"/>
-      <c r="G260" s="409"/>
-      <c r="H260" s="409"/>
-      <c r="I260" s="409"/>
-      <c r="J260" s="409"/>
-      <c r="K260" s="409"/>
-      <c r="L260" s="409"/>
-      <c r="M260" s="409"/>
-      <c r="N260" s="409"/>
-      <c r="O260" s="409"/>
+      <c r="A260" s="412" t="s">
+        <v>927</v>
+      </c>
+      <c r="B260" s="412"/>
+      <c r="C260" s="412"/>
+      <c r="D260" s="412"/>
+      <c r="E260" s="412"/>
+      <c r="F260" s="412"/>
+      <c r="G260" s="412"/>
+      <c r="H260" s="412"/>
+      <c r="I260" s="412"/>
+      <c r="J260" s="412"/>
+      <c r="K260" s="412"/>
+      <c r="L260" s="412"/>
+      <c r="M260" s="412"/>
+      <c r="N260" s="412"/>
+      <c r="O260" s="412"/>
       <c r="P260" s="382"/>
       <c r="Q260" s="152"/>
       <c r="R260" s="152"/>
@@ -18590,14 +19008,14 @@
     </row>
     <row r="261" spans="1:26" s="153" customFormat="1" ht="31.2">
       <c r="A261" s="217" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B261" s="223"/>
       <c r="C261" s="140" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D261" s="140" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E261" s="193"/>
       <c r="F261" s="302"/>
@@ -18630,14 +19048,14 @@
     </row>
     <row r="262" spans="1:26" s="153" customFormat="1" ht="31.5" customHeight="1">
       <c r="A262" s="217" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B262" s="223"/>
       <c r="C262" s="140" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D262" s="140" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E262" s="193"/>
       <c r="F262" s="302"/>
@@ -18670,14 +19088,14 @@
     </row>
     <row r="263" spans="1:26" s="153" customFormat="1" ht="31.2">
       <c r="A263" s="217" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B263" s="223"/>
       <c r="C263" s="140" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D263" s="140" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E263" s="193"/>
       <c r="F263" s="302"/>
@@ -18709,20 +19127,20 @@
       <c r="Z263" s="154"/>
     </row>
     <row r="264" spans="1:26" s="153" customFormat="1">
-      <c r="A264" s="418" t="s">
+      <c r="A264" s="421" t="s">
         <v>350</v>
       </c>
-      <c r="B264" s="419"/>
-      <c r="C264" s="419"/>
-      <c r="D264" s="419"/>
-      <c r="E264" s="419"/>
-      <c r="F264" s="419"/>
-      <c r="G264" s="419"/>
-      <c r="H264" s="419"/>
-      <c r="I264" s="419"/>
-      <c r="J264" s="419"/>
-      <c r="K264" s="419"/>
-      <c r="L264" s="420"/>
+      <c r="B264" s="422"/>
+      <c r="C264" s="422"/>
+      <c r="D264" s="422"/>
+      <c r="E264" s="422"/>
+      <c r="F264" s="422"/>
+      <c r="G264" s="422"/>
+      <c r="H264" s="422"/>
+      <c r="I264" s="422"/>
+      <c r="J264" s="422"/>
+      <c r="K264" s="422"/>
+      <c r="L264" s="423"/>
       <c r="M264" s="143"/>
       <c r="N264" s="197"/>
       <c r="O264" s="165"/>
@@ -18737,23 +19155,23 @@
       <c r="Z264" s="154"/>
     </row>
     <row r="265" spans="1:26" s="153" customFormat="1" ht="23.4">
-      <c r="A265" s="409" t="s">
-        <v>912</v>
-      </c>
-      <c r="B265" s="409"/>
-      <c r="C265" s="409"/>
-      <c r="D265" s="409"/>
-      <c r="E265" s="409"/>
-      <c r="F265" s="409"/>
-      <c r="G265" s="409"/>
-      <c r="H265" s="409"/>
-      <c r="I265" s="409"/>
-      <c r="J265" s="409"/>
-      <c r="K265" s="409"/>
-      <c r="L265" s="409"/>
-      <c r="M265" s="409"/>
-      <c r="N265" s="409"/>
-      <c r="O265" s="409"/>
+      <c r="A265" s="412" t="s">
+        <v>911</v>
+      </c>
+      <c r="B265" s="412"/>
+      <c r="C265" s="412"/>
+      <c r="D265" s="412"/>
+      <c r="E265" s="412"/>
+      <c r="F265" s="412"/>
+      <c r="G265" s="412"/>
+      <c r="H265" s="412"/>
+      <c r="I265" s="412"/>
+      <c r="J265" s="412"/>
+      <c r="K265" s="412"/>
+      <c r="L265" s="412"/>
+      <c r="M265" s="412"/>
+      <c r="N265" s="412"/>
+      <c r="O265" s="412"/>
       <c r="P265" s="382"/>
       <c r="Q265" s="152"/>
       <c r="R265" s="152"/>
@@ -18917,20 +19335,20 @@
       <c r="Z269" s="255"/>
     </row>
     <row r="270" spans="1:26" s="254" customFormat="1">
-      <c r="A270" s="418" t="s">
+      <c r="A270" s="421" t="s">
         <v>350</v>
       </c>
-      <c r="B270" s="419"/>
-      <c r="C270" s="419"/>
-      <c r="D270" s="419"/>
-      <c r="E270" s="419"/>
-      <c r="F270" s="419"/>
-      <c r="G270" s="419"/>
-      <c r="H270" s="419"/>
-      <c r="I270" s="419"/>
-      <c r="J270" s="419"/>
-      <c r="K270" s="419"/>
-      <c r="L270" s="420"/>
+      <c r="B270" s="422"/>
+      <c r="C270" s="422"/>
+      <c r="D270" s="422"/>
+      <c r="E270" s="422"/>
+      <c r="F270" s="422"/>
+      <c r="G270" s="422"/>
+      <c r="H270" s="422"/>
+      <c r="I270" s="422"/>
+      <c r="J270" s="422"/>
+      <c r="K270" s="422"/>
+      <c r="L270" s="423"/>
       <c r="M270" s="143"/>
       <c r="N270" s="197"/>
       <c r="O270" s="165"/>
@@ -18945,23 +19363,23 @@
       <c r="Z270" s="255"/>
     </row>
     <row r="271" spans="1:26" s="254" customFormat="1" ht="22.8">
-      <c r="A271" s="410" t="s">
+      <c r="A271" s="413" t="s">
         <v>567</v>
       </c>
-      <c r="B271" s="410"/>
-      <c r="C271" s="410"/>
-      <c r="D271" s="410"/>
-      <c r="E271" s="410"/>
-      <c r="F271" s="410"/>
-      <c r="G271" s="410"/>
-      <c r="H271" s="410"/>
-      <c r="I271" s="410"/>
-      <c r="J271" s="410"/>
-      <c r="K271" s="410"/>
-      <c r="L271" s="410"/>
-      <c r="M271" s="410"/>
-      <c r="N271" s="410"/>
-      <c r="O271" s="410"/>
+      <c r="B271" s="413"/>
+      <c r="C271" s="413"/>
+      <c r="D271" s="413"/>
+      <c r="E271" s="413"/>
+      <c r="F271" s="413"/>
+      <c r="G271" s="413"/>
+      <c r="H271" s="413"/>
+      <c r="I271" s="413"/>
+      <c r="J271" s="413"/>
+      <c r="K271" s="413"/>
+      <c r="L271" s="413"/>
+      <c r="M271" s="413"/>
+      <c r="N271" s="413"/>
+      <c r="O271" s="413"/>
       <c r="P271" s="381"/>
       <c r="Q271" s="130"/>
       <c r="R271" s="253"/>
@@ -18974,14 +19392,14 @@
     </row>
     <row r="272" spans="1:26" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A272" s="217" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B272" s="299"/>
       <c r="C272" s="140" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D272" s="140" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E272" s="141"/>
       <c r="F272" s="143"/>
@@ -19014,14 +19432,14 @@
     </row>
     <row r="273" spans="1:26" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A273" s="217" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B273" s="299"/>
       <c r="C273" s="140" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D273" s="140" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E273" s="141"/>
       <c r="F273" s="143"/>
@@ -19054,14 +19472,14 @@
     </row>
     <row r="274" spans="1:26" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A274" s="217" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B274" s="299"/>
       <c r="C274" s="140" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D274" s="140" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E274" s="141"/>
       <c r="F274" s="143"/>
@@ -19094,14 +19512,14 @@
     </row>
     <row r="275" spans="1:26" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A275" s="217" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B275" s="223"/>
       <c r="C275" s="140" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D275" s="140" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E275" s="141"/>
       <c r="F275" s="143"/>
@@ -19134,14 +19552,14 @@
     </row>
     <row r="276" spans="1:26" s="153" customFormat="1" ht="30.75" customHeight="1">
       <c r="A276" s="217" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B276" s="223"/>
       <c r="C276" s="140" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D276" s="155" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E276" s="141"/>
       <c r="F276" s="143"/>
@@ -19178,10 +19596,10 @@
       </c>
       <c r="B277" s="223"/>
       <c r="C277" s="140" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D277" s="306" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E277" s="141"/>
       <c r="F277" s="143"/>
@@ -19239,23 +19657,23 @@
       <c r="Z278" s="169"/>
     </row>
     <row r="279" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A279" s="409" t="s">
+      <c r="A279" s="412" t="s">
         <v>324</v>
       </c>
-      <c r="B279" s="409"/>
-      <c r="C279" s="409"/>
-      <c r="D279" s="409"/>
-      <c r="E279" s="409"/>
-      <c r="F279" s="409"/>
-      <c r="G279" s="409"/>
-      <c r="H279" s="409"/>
-      <c r="I279" s="409"/>
-      <c r="J279" s="409"/>
-      <c r="K279" s="409"/>
-      <c r="L279" s="409"/>
-      <c r="M279" s="409"/>
-      <c r="N279" s="409"/>
-      <c r="O279" s="409"/>
+      <c r="B279" s="412"/>
+      <c r="C279" s="412"/>
+      <c r="D279" s="412"/>
+      <c r="E279" s="412"/>
+      <c r="F279" s="412"/>
+      <c r="G279" s="412"/>
+      <c r="H279" s="412"/>
+      <c r="I279" s="412"/>
+      <c r="J279" s="412"/>
+      <c r="K279" s="412"/>
+      <c r="L279" s="412"/>
+      <c r="M279" s="412"/>
+      <c r="N279" s="412"/>
+      <c r="O279" s="412"/>
       <c r="P279" s="382"/>
       <c r="Q279" s="167"/>
       <c r="R279" s="167"/>
@@ -19503,23 +19921,23 @@
       <c r="Z283" s="169"/>
     </row>
     <row r="284" spans="1:26" s="168" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A284" s="409" t="s">
+      <c r="A284" s="412" t="s">
         <v>100</v>
       </c>
-      <c r="B284" s="409"/>
-      <c r="C284" s="409"/>
-      <c r="D284" s="409"/>
-      <c r="E284" s="409"/>
-      <c r="F284" s="409"/>
-      <c r="G284" s="409"/>
-      <c r="H284" s="409"/>
-      <c r="I284" s="409"/>
-      <c r="J284" s="409"/>
-      <c r="K284" s="409"/>
-      <c r="L284" s="409"/>
-      <c r="M284" s="409"/>
-      <c r="N284" s="409"/>
-      <c r="O284" s="409"/>
+      <c r="B284" s="412"/>
+      <c r="C284" s="412"/>
+      <c r="D284" s="412"/>
+      <c r="E284" s="412"/>
+      <c r="F284" s="412"/>
+      <c r="G284" s="412"/>
+      <c r="H284" s="412"/>
+      <c r="I284" s="412"/>
+      <c r="J284" s="412"/>
+      <c r="K284" s="412"/>
+      <c r="L284" s="412"/>
+      <c r="M284" s="412"/>
+      <c r="N284" s="412"/>
+      <c r="O284" s="412"/>
       <c r="P284" s="382"/>
       <c r="Q284" s="167"/>
       <c r="R284" s="167"/>
@@ -19711,23 +20129,23 @@
       <c r="Z288" s="169"/>
     </row>
     <row r="289" spans="1:26" s="158" customFormat="1" ht="22.8">
-      <c r="A289" s="409" t="s">
+      <c r="A289" s="412" t="s">
         <v>337</v>
       </c>
-      <c r="B289" s="409"/>
-      <c r="C289" s="409"/>
-      <c r="D289" s="409"/>
-      <c r="E289" s="409"/>
-      <c r="F289" s="409"/>
-      <c r="G289" s="409"/>
-      <c r="H289" s="409"/>
-      <c r="I289" s="409"/>
-      <c r="J289" s="409"/>
-      <c r="K289" s="409"/>
-      <c r="L289" s="409"/>
-      <c r="M289" s="409"/>
-      <c r="N289" s="409"/>
-      <c r="O289" s="409"/>
+      <c r="B289" s="412"/>
+      <c r="C289" s="412"/>
+      <c r="D289" s="412"/>
+      <c r="E289" s="412"/>
+      <c r="F289" s="412"/>
+      <c r="G289" s="412"/>
+      <c r="H289" s="412"/>
+      <c r="I289" s="412"/>
+      <c r="J289" s="412"/>
+      <c r="K289" s="412"/>
+      <c r="L289" s="412"/>
+      <c r="M289" s="412"/>
+      <c r="N289" s="412"/>
+      <c r="O289" s="412"/>
       <c r="P289" s="381"/>
       <c r="Q289" s="213"/>
       <c r="R289" s="213"/>
@@ -20055,23 +20473,23 @@
       <c r="Z297" s="286"/>
     </row>
     <row r="298" spans="1:26" s="285" customFormat="1" ht="23.4">
-      <c r="A298" s="409" t="s">
+      <c r="A298" s="412" t="s">
         <v>577</v>
       </c>
-      <c r="B298" s="409"/>
-      <c r="C298" s="409"/>
-      <c r="D298" s="409"/>
-      <c r="E298" s="409"/>
-      <c r="F298" s="409"/>
-      <c r="G298" s="409"/>
-      <c r="H298" s="409"/>
-      <c r="I298" s="409"/>
-      <c r="J298" s="409"/>
-      <c r="K298" s="409"/>
-      <c r="L298" s="409"/>
-      <c r="M298" s="409"/>
-      <c r="N298" s="409"/>
-      <c r="O298" s="409"/>
+      <c r="B298" s="412"/>
+      <c r="C298" s="412"/>
+      <c r="D298" s="412"/>
+      <c r="E298" s="412"/>
+      <c r="F298" s="412"/>
+      <c r="G298" s="412"/>
+      <c r="H298" s="412"/>
+      <c r="I298" s="412"/>
+      <c r="J298" s="412"/>
+      <c r="K298" s="412"/>
+      <c r="L298" s="412"/>
+      <c r="M298" s="412"/>
+      <c r="N298" s="412"/>
+      <c r="O298" s="412"/>
       <c r="P298" s="382"/>
       <c r="Q298" s="283">
         <f>(G315-E315)</f>
@@ -20186,10 +20604,10 @@
       </c>
       <c r="B301" s="301"/>
       <c r="C301" s="150" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D301" s="150" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E301" s="151"/>
       <c r="F301" s="143"/>
@@ -20222,14 +20640,14 @@
     </row>
     <row r="302" spans="1:26" s="285" customFormat="1" ht="46.8">
       <c r="A302" s="218" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B302" s="301"/>
       <c r="C302" s="150" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D302" s="150" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E302" s="151"/>
       <c r="F302" s="143"/>
@@ -20378,23 +20796,23 @@
       </c>
     </row>
     <row r="305" spans="1:26" s="285" customFormat="1" ht="23.4">
-      <c r="A305" s="409" t="s">
+      <c r="A305" s="412" t="s">
         <v>111</v>
       </c>
-      <c r="B305" s="409"/>
-      <c r="C305" s="409"/>
-      <c r="D305" s="409"/>
-      <c r="E305" s="409"/>
-      <c r="F305" s="409"/>
-      <c r="G305" s="409"/>
-      <c r="H305" s="409"/>
-      <c r="I305" s="409"/>
-      <c r="J305" s="409"/>
-      <c r="K305" s="409"/>
-      <c r="L305" s="409"/>
-      <c r="M305" s="409"/>
-      <c r="N305" s="409"/>
-      <c r="O305" s="409"/>
+      <c r="B305" s="412"/>
+      <c r="C305" s="412"/>
+      <c r="D305" s="412"/>
+      <c r="E305" s="412"/>
+      <c r="F305" s="412"/>
+      <c r="G305" s="412"/>
+      <c r="H305" s="412"/>
+      <c r="I305" s="412"/>
+      <c r="J305" s="412"/>
+      <c r="K305" s="412"/>
+      <c r="L305" s="412"/>
+      <c r="M305" s="412"/>
+      <c r="N305" s="412"/>
+      <c r="O305" s="412"/>
       <c r="P305" s="382"/>
       <c r="Q305" s="283">
         <f t="shared" si="119"/>
@@ -20724,23 +21142,23 @@
       </c>
     </row>
     <row r="311" spans="1:26" s="285" customFormat="1" ht="23.4">
-      <c r="A311" s="408" t="s">
+      <c r="A311" s="411" t="s">
         <v>134</v>
       </c>
-      <c r="B311" s="408"/>
-      <c r="C311" s="408"/>
-      <c r="D311" s="408"/>
-      <c r="E311" s="408"/>
-      <c r="F311" s="408"/>
-      <c r="G311" s="408"/>
-      <c r="H311" s="408"/>
-      <c r="I311" s="408"/>
-      <c r="J311" s="408"/>
-      <c r="K311" s="408"/>
-      <c r="L311" s="408"/>
-      <c r="M311" s="408"/>
-      <c r="N311" s="408"/>
-      <c r="O311" s="408"/>
+      <c r="B311" s="411"/>
+      <c r="C311" s="411"/>
+      <c r="D311" s="411"/>
+      <c r="E311" s="411"/>
+      <c r="F311" s="411"/>
+      <c r="G311" s="411"/>
+      <c r="H311" s="411"/>
+      <c r="I311" s="411"/>
+      <c r="J311" s="411"/>
+      <c r="K311" s="411"/>
+      <c r="L311" s="411"/>
+      <c r="M311" s="411"/>
+      <c r="N311" s="411"/>
+      <c r="O311" s="411"/>
       <c r="P311" s="382"/>
       <c r="Q311" s="283">
         <f t="shared" si="119"/>
@@ -21607,16 +22025,16 @@
     </row>
     <row r="330" spans="1:26" s="285" customFormat="1" ht="82.8">
       <c r="A330" s="388" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B330" s="373" t="s">
         <v>484</v>
       </c>
       <c r="C330" s="374" t="s">
+        <v>905</v>
+      </c>
+      <c r="D330" s="389" t="s">
         <v>906</v>
-      </c>
-      <c r="D330" s="389" t="s">
-        <v>907</v>
       </c>
       <c r="E330" s="390">
         <v>1135</v>
@@ -21669,7 +22087,7 @@
       <c r="B331" s="224"/>
       <c r="C331" s="225"/>
       <c r="D331" s="297" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E331" s="228"/>
       <c r="F331" s="225"/>
@@ -21694,13 +22112,13 @@
     </row>
     <row r="332" spans="1:26" s="285" customFormat="1">
       <c r="A332" s="219" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B332" s="402" t="s">
         <v>13</v>
       </c>
       <c r="C332" s="223" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D332" s="330"/>
       <c r="E332" s="327"/>
@@ -21717,7 +22135,7 @@
         <v>529</v>
       </c>
       <c r="L332" s="326" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M332" s="280"/>
       <c r="N332" s="287"/>
@@ -21742,16 +22160,16 @@
     </row>
     <row r="333" spans="1:26" s="285" customFormat="1" ht="78">
       <c r="A333" s="219" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B333" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C333" s="223" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D333" s="312" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E333" s="327"/>
       <c r="F333" s="280"/>
@@ -21767,7 +22185,7 @@
         <v>1799</v>
       </c>
       <c r="L333" s="326" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M333" s="280"/>
       <c r="N333" s="287"/>
@@ -21792,13 +22210,13 @@
     </row>
     <row r="334" spans="1:26" s="285" customFormat="1" ht="31.2">
       <c r="A334" s="219" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B334" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C334" s="223" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D334" s="312"/>
       <c r="E334" s="327"/>
@@ -21815,7 +22233,7 @@
         <v>1549</v>
       </c>
       <c r="L334" s="326" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M334" s="280"/>
       <c r="N334" s="287"/>
@@ -21834,16 +22252,16 @@
     </row>
     <row r="335" spans="1:26" s="285" customFormat="1" ht="78">
       <c r="A335" s="219" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B335" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C335" s="223" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D335" s="312" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E335" s="327"/>
       <c r="F335" s="280"/>
@@ -21859,7 +22277,7 @@
         <v>579</v>
       </c>
       <c r="L335" s="326" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M335" s="280"/>
       <c r="N335" s="287"/>
@@ -21884,13 +22302,13 @@
     </row>
     <row r="336" spans="1:26" s="285" customFormat="1">
       <c r="A336" s="219" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B336" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C336" s="223" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D336" s="312"/>
       <c r="E336" s="327"/>
@@ -21907,7 +22325,7 @@
         <v>284</v>
       </c>
       <c r="L336" s="326" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="M336" s="280"/>
       <c r="N336" s="287"/>
@@ -21932,11 +22350,11 @@
     </row>
     <row r="337" spans="1:26" s="285" customFormat="1">
       <c r="A337" s="219" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B337" s="299"/>
       <c r="C337" s="223" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D337" s="312"/>
       <c r="E337" s="327"/>
@@ -21953,7 +22371,7 @@
         <v>184</v>
       </c>
       <c r="L337" s="326" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M337" s="280"/>
       <c r="N337" s="287"/>
@@ -21972,11 +22390,11 @@
     </row>
     <row r="338" spans="1:26" s="285" customFormat="1">
       <c r="A338" s="219" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B338" s="299"/>
       <c r="C338" s="223" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D338" s="312"/>
       <c r="E338" s="327"/>
@@ -21993,7 +22411,7 @@
         <v>35</v>
       </c>
       <c r="L338" s="326" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M338" s="280"/>
       <c r="N338" s="287"/>
@@ -22012,13 +22430,13 @@
     </row>
     <row r="339" spans="1:26" s="285" customFormat="1">
       <c r="A339" s="219" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B339" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C339" s="223" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D339" s="312"/>
       <c r="E339" s="327"/>
@@ -22035,7 +22453,7 @@
         <v>125</v>
       </c>
       <c r="L339" s="326" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M339" s="280"/>
       <c r="N339" s="287"/>
@@ -22777,23 +23195,23 @@
       <c r="Z356" s="154"/>
     </row>
     <row r="357" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A357" s="421" t="s">
-        <v>795</v>
-      </c>
-      <c r="B357" s="421"/>
-      <c r="C357" s="421"/>
-      <c r="D357" s="421"/>
-      <c r="E357" s="421"/>
-      <c r="F357" s="421"/>
-      <c r="G357" s="421"/>
-      <c r="H357" s="421"/>
-      <c r="I357" s="421"/>
-      <c r="J357" s="421"/>
-      <c r="K357" s="421"/>
-      <c r="L357" s="421"/>
-      <c r="M357" s="421"/>
-      <c r="N357" s="421"/>
-      <c r="O357" s="421"/>
+      <c r="A357" s="424" t="s">
+        <v>794</v>
+      </c>
+      <c r="B357" s="424"/>
+      <c r="C357" s="424"/>
+      <c r="D357" s="424"/>
+      <c r="E357" s="424"/>
+      <c r="F357" s="424"/>
+      <c r="G357" s="424"/>
+      <c r="H357" s="424"/>
+      <c r="I357" s="424"/>
+      <c r="J357" s="424"/>
+      <c r="K357" s="424"/>
+      <c r="L357" s="424"/>
+      <c r="M357" s="424"/>
+      <c r="N357" s="424"/>
+      <c r="O357" s="424"/>
       <c r="P357" s="382"/>
       <c r="Q357" s="152"/>
       <c r="R357" s="152"/>
@@ -22805,23 +23223,23 @@
       <c r="Z357" s="154"/>
     </row>
     <row r="358" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A358" s="409" t="s">
-        <v>818</v>
-      </c>
-      <c r="B358" s="409"/>
-      <c r="C358" s="409"/>
-      <c r="D358" s="409"/>
-      <c r="E358" s="409"/>
-      <c r="F358" s="409"/>
-      <c r="G358" s="409"/>
-      <c r="H358" s="409"/>
-      <c r="I358" s="409"/>
-      <c r="J358" s="409"/>
-      <c r="K358" s="409"/>
-      <c r="L358" s="409"/>
-      <c r="M358" s="409"/>
-      <c r="N358" s="409"/>
-      <c r="O358" s="409"/>
+      <c r="A358" s="412" t="s">
+        <v>817</v>
+      </c>
+      <c r="B358" s="412"/>
+      <c r="C358" s="412"/>
+      <c r="D358" s="412"/>
+      <c r="E358" s="412"/>
+      <c r="F358" s="412"/>
+      <c r="G358" s="412"/>
+      <c r="H358" s="412"/>
+      <c r="I358" s="412"/>
+      <c r="J358" s="412"/>
+      <c r="K358" s="412"/>
+      <c r="L358" s="412"/>
+      <c r="M358" s="412"/>
+      <c r="N358" s="412"/>
+      <c r="O358" s="412"/>
       <c r="P358" s="382"/>
       <c r="Q358" s="152"/>
       <c r="R358" s="152"/>
@@ -22834,16 +23252,16 @@
     </row>
     <row r="359" spans="1:26" s="153" customFormat="1" ht="37.5" customHeight="1">
       <c r="A359" s="194" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B359" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C359" s="140" t="s">
+        <v>820</v>
+      </c>
+      <c r="D359" s="140" t="s">
         <v>821</v>
-      </c>
-      <c r="D359" s="140" t="s">
-        <v>822</v>
       </c>
       <c r="E359" s="193">
         <f t="shared" ref="E359" si="137">J359-(J359*0.35)</f>
@@ -22893,13 +23311,13 @@
     </row>
     <row r="360" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A360" s="194" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B360" s="371" t="s">
         <v>484</v>
       </c>
       <c r="C360" s="140" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D360" s="140"/>
       <c r="E360" s="193">
@@ -22949,13 +23367,13 @@
     </row>
     <row r="361" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A361" s="194" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B361" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C361" s="140" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D361" s="140"/>
       <c r="E361" s="193">
@@ -23005,13 +23423,13 @@
     </row>
     <row r="362" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A362" s="194" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B362" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C362" s="140" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D362" s="140"/>
       <c r="E362" s="193">
@@ -23062,13 +23480,13 @@
     </row>
     <row r="363" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A363" s="194" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B363" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C363" s="140" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D363" s="140"/>
       <c r="E363" s="193">
@@ -23119,13 +23537,13 @@
     </row>
     <row r="364" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A364" s="194" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B364" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C364" s="140" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D364" s="140"/>
       <c r="E364" s="193">
@@ -23176,13 +23594,13 @@
     </row>
     <row r="365" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A365" s="194" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B365" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C365" s="140" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D365" s="140"/>
       <c r="E365" s="193">
@@ -23233,13 +23651,13 @@
     </row>
     <row r="366" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A366" s="194" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B366" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C366" s="140" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D366" s="140"/>
       <c r="E366" s="193">
@@ -23290,13 +23708,13 @@
     </row>
     <row r="367" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A367" s="194" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B367" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C367" s="140" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D367" s="140"/>
       <c r="E367" s="193">
@@ -23347,13 +23765,13 @@
     </row>
     <row r="368" spans="1:26" s="171" customFormat="1" ht="31.2">
       <c r="A368" s="194" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B368" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C368" s="140" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D368" s="140"/>
       <c r="E368" s="193">
@@ -23398,13 +23816,13 @@
     </row>
     <row r="369" spans="1:26" s="153" customFormat="1" ht="37.5" customHeight="1">
       <c r="A369" s="194" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B369" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C369" s="140" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D369" s="140"/>
       <c r="E369" s="193">
@@ -23454,23 +23872,23 @@
       <c r="Z369" s="154"/>
     </row>
     <row r="370" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A370" s="409" t="s">
-        <v>819</v>
-      </c>
-      <c r="B370" s="409"/>
-      <c r="C370" s="409"/>
-      <c r="D370" s="409"/>
-      <c r="E370" s="409"/>
-      <c r="F370" s="409"/>
-      <c r="G370" s="409"/>
-      <c r="H370" s="409"/>
-      <c r="I370" s="409"/>
-      <c r="J370" s="409"/>
-      <c r="K370" s="409"/>
-      <c r="L370" s="409"/>
-      <c r="M370" s="409"/>
-      <c r="N370" s="409"/>
-      <c r="O370" s="409"/>
+      <c r="A370" s="412" t="s">
+        <v>818</v>
+      </c>
+      <c r="B370" s="412"/>
+      <c r="C370" s="412"/>
+      <c r="D370" s="412"/>
+      <c r="E370" s="412"/>
+      <c r="F370" s="412"/>
+      <c r="G370" s="412"/>
+      <c r="H370" s="412"/>
+      <c r="I370" s="412"/>
+      <c r="J370" s="412"/>
+      <c r="K370" s="412"/>
+      <c r="L370" s="412"/>
+      <c r="M370" s="412"/>
+      <c r="N370" s="412"/>
+      <c r="O370" s="412"/>
       <c r="P370" s="382"/>
       <c r="Q370" s="152"/>
       <c r="R370" s="152"/>
@@ -23483,13 +23901,13 @@
     </row>
     <row r="371" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A371" s="194" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B371" s="371" t="s">
         <v>484</v>
       </c>
       <c r="C371" s="140" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D371" s="140"/>
       <c r="E371" s="193">
@@ -23536,13 +23954,13 @@
     </row>
     <row r="372" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A372" s="194" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B372" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C372" s="140" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D372" s="140"/>
       <c r="E372" s="193">
@@ -23589,13 +24007,13 @@
     </row>
     <row r="373" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A373" s="194" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B373" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C373" s="140" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D373" s="140"/>
       <c r="E373" s="193">
@@ -23693,21 +24111,21 @@
       <c r="Z375" s="154"/>
     </row>
     <row r="376" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A376" s="422"/>
-      <c r="B376" s="422"/>
-      <c r="C376" s="422"/>
-      <c r="D376" s="422"/>
-      <c r="E376" s="422"/>
-      <c r="F376" s="422"/>
-      <c r="G376" s="422"/>
-      <c r="H376" s="422"/>
-      <c r="I376" s="422"/>
-      <c r="J376" s="422"/>
-      <c r="K376" s="422"/>
-      <c r="L376" s="422"/>
-      <c r="M376" s="422"/>
-      <c r="N376" s="422"/>
-      <c r="O376" s="422"/>
+      <c r="A376" s="425"/>
+      <c r="B376" s="425"/>
+      <c r="C376" s="425"/>
+      <c r="D376" s="425"/>
+      <c r="E376" s="425"/>
+      <c r="F376" s="425"/>
+      <c r="G376" s="425"/>
+      <c r="H376" s="425"/>
+      <c r="I376" s="425"/>
+      <c r="J376" s="425"/>
+      <c r="K376" s="425"/>
+      <c r="L376" s="425"/>
+      <c r="M376" s="425"/>
+      <c r="N376" s="425"/>
+      <c r="O376" s="425"/>
       <c r="P376" s="382"/>
       <c r="Q376" s="152"/>
       <c r="R376" s="152"/>
@@ -23719,23 +24137,23 @@
       <c r="Z376" s="154"/>
     </row>
     <row r="377" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A377" s="409" t="s">
-        <v>836</v>
-      </c>
-      <c r="B377" s="409"/>
-      <c r="C377" s="409"/>
-      <c r="D377" s="409"/>
-      <c r="E377" s="409"/>
-      <c r="F377" s="409"/>
-      <c r="G377" s="409"/>
-      <c r="H377" s="409"/>
-      <c r="I377" s="409"/>
-      <c r="J377" s="409"/>
-      <c r="K377" s="409"/>
-      <c r="L377" s="409"/>
-      <c r="M377" s="409"/>
-      <c r="N377" s="409"/>
-      <c r="O377" s="409"/>
+      <c r="A377" s="412" t="s">
+        <v>835</v>
+      </c>
+      <c r="B377" s="412"/>
+      <c r="C377" s="412"/>
+      <c r="D377" s="412"/>
+      <c r="E377" s="412"/>
+      <c r="F377" s="412"/>
+      <c r="G377" s="412"/>
+      <c r="H377" s="412"/>
+      <c r="I377" s="412"/>
+      <c r="J377" s="412"/>
+      <c r="K377" s="412"/>
+      <c r="L377" s="412"/>
+      <c r="M377" s="412"/>
+      <c r="N377" s="412"/>
+      <c r="O377" s="412"/>
       <c r="P377" s="382"/>
       <c r="Q377" s="152"/>
       <c r="R377" s="152"/>
@@ -23748,13 +24166,13 @@
     </row>
     <row r="378" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A378" s="194" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B378" s="299" t="s">
         <v>484</v>
       </c>
       <c r="C378" s="140" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D378" s="140"/>
       <c r="E378" s="193">
@@ -23806,13 +24224,13 @@
     </row>
     <row r="379" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A379" s="194" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B379" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C379" s="140" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D379" s="140"/>
       <c r="E379" s="193">
@@ -23864,13 +24282,13 @@
     </row>
     <row r="380" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A380" s="194" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B380" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C380" s="140" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D380" s="140"/>
       <c r="E380" s="193">
@@ -23923,13 +24341,13 @@
     </row>
     <row r="381" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A381" s="194" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B381" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C381" s="140" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D381" s="140"/>
       <c r="E381" s="193">
@@ -23982,13 +24400,13 @@
     </row>
     <row r="382" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A382" s="194" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B382" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C382" s="140" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D382" s="140"/>
       <c r="E382" s="193">
@@ -24041,13 +24459,13 @@
     </row>
     <row r="383" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A383" s="194" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B383" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C383" s="140" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D383" s="140"/>
       <c r="E383" s="193">
@@ -24133,23 +24551,23 @@
       <c r="Z384" s="154"/>
     </row>
     <row r="385" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A385" s="409" t="s">
-        <v>820</v>
-      </c>
-      <c r="B385" s="409"/>
-      <c r="C385" s="409"/>
-      <c r="D385" s="409"/>
-      <c r="E385" s="409"/>
-      <c r="F385" s="409"/>
-      <c r="G385" s="409"/>
-      <c r="H385" s="409"/>
-      <c r="I385" s="409"/>
-      <c r="J385" s="409"/>
-      <c r="K385" s="409"/>
-      <c r="L385" s="409"/>
-      <c r="M385" s="409"/>
-      <c r="N385" s="409"/>
-      <c r="O385" s="409"/>
+      <c r="A385" s="412" t="s">
+        <v>819</v>
+      </c>
+      <c r="B385" s="412"/>
+      <c r="C385" s="412"/>
+      <c r="D385" s="412"/>
+      <c r="E385" s="412"/>
+      <c r="F385" s="412"/>
+      <c r="G385" s="412"/>
+      <c r="H385" s="412"/>
+      <c r="I385" s="412"/>
+      <c r="J385" s="412"/>
+      <c r="K385" s="412"/>
+      <c r="L385" s="412"/>
+      <c r="M385" s="412"/>
+      <c r="N385" s="412"/>
+      <c r="O385" s="412"/>
       <c r="P385" s="382"/>
       <c r="Q385" s="152"/>
       <c r="R385" s="152"/>
@@ -24162,13 +24580,13 @@
     </row>
     <row r="386" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A386" s="194" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B386" s="371" t="s">
         <v>484</v>
       </c>
       <c r="C386" s="140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D386" s="140"/>
       <c r="E386" s="193">
@@ -24220,13 +24638,13 @@
     </row>
     <row r="387" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A387" s="194" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B387" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C387" s="140" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D387" s="140"/>
       <c r="E387" s="193">
@@ -24278,16 +24696,16 @@
     </row>
     <row r="388" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A388" s="194" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B388" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C388" s="140" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D388" s="140" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E388" s="193">
         <f t="shared" ref="E388:E389" si="163">J388-(J388*0.35)</f>
@@ -24339,13 +24757,13 @@
     </row>
     <row r="389" spans="1:26" s="153" customFormat="1" ht="33.75" customHeight="1">
       <c r="A389" s="194" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B389" s="371" t="s">
         <v>13</v>
       </c>
       <c r="C389" s="140" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D389" s="140"/>
       <c r="E389" s="193">
@@ -24431,23 +24849,23 @@
       <c r="Z390" s="154"/>
     </row>
     <row r="391" spans="1:26" s="153" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A391" s="410" t="s">
+      <c r="A391" s="413" t="s">
         <v>704</v>
       </c>
-      <c r="B391" s="410"/>
-      <c r="C391" s="410"/>
-      <c r="D391" s="410"/>
-      <c r="E391" s="410"/>
-      <c r="F391" s="410"/>
-      <c r="G391" s="410"/>
-      <c r="H391" s="410"/>
-      <c r="I391" s="410"/>
-      <c r="J391" s="410"/>
-      <c r="K391" s="410"/>
-      <c r="L391" s="410"/>
-      <c r="M391" s="410"/>
-      <c r="N391" s="410"/>
-      <c r="O391" s="410"/>
+      <c r="B391" s="413"/>
+      <c r="C391" s="413"/>
+      <c r="D391" s="413"/>
+      <c r="E391" s="413"/>
+      <c r="F391" s="413"/>
+      <c r="G391" s="413"/>
+      <c r="H391" s="413"/>
+      <c r="I391" s="413"/>
+      <c r="J391" s="413"/>
+      <c r="K391" s="413"/>
+      <c r="L391" s="413"/>
+      <c r="M391" s="413"/>
+      <c r="N391" s="413"/>
+      <c r="O391" s="413"/>
       <c r="P391" s="382"/>
       <c r="Q391" s="152"/>
       <c r="R391" s="152"/>
@@ -24995,23 +25413,23 @@
       <c r="Z404" s="154"/>
     </row>
     <row r="405" spans="1:26" s="153" customFormat="1" ht="23.4">
-      <c r="A405" s="410" t="s">
+      <c r="A405" s="413" t="s">
         <v>496</v>
       </c>
-      <c r="B405" s="410"/>
-      <c r="C405" s="410"/>
-      <c r="D405" s="410"/>
-      <c r="E405" s="410"/>
-      <c r="F405" s="410"/>
-      <c r="G405" s="410"/>
-      <c r="H405" s="410"/>
-      <c r="I405" s="410"/>
-      <c r="J405" s="410"/>
-      <c r="K405" s="410"/>
-      <c r="L405" s="410"/>
-      <c r="M405" s="410"/>
-      <c r="N405" s="410"/>
-      <c r="O405" s="410"/>
+      <c r="B405" s="413"/>
+      <c r="C405" s="413"/>
+      <c r="D405" s="413"/>
+      <c r="E405" s="413"/>
+      <c r="F405" s="413"/>
+      <c r="G405" s="413"/>
+      <c r="H405" s="413"/>
+      <c r="I405" s="413"/>
+      <c r="J405" s="413"/>
+      <c r="K405" s="413"/>
+      <c r="L405" s="413"/>
+      <c r="M405" s="413"/>
+      <c r="N405" s="413"/>
+      <c r="O405" s="413"/>
       <c r="P405" s="382"/>
       <c r="Q405" s="152"/>
       <c r="R405" s="152"/>
@@ -25345,23 +25763,23 @@
       <c r="Z413" s="154"/>
     </row>
     <row r="414" spans="1:26" s="153" customFormat="1" ht="23.4">
-      <c r="A414" s="410" t="s">
+      <c r="A414" s="413" t="s">
         <v>592</v>
       </c>
-      <c r="B414" s="410"/>
-      <c r="C414" s="410"/>
-      <c r="D414" s="410"/>
-      <c r="E414" s="410"/>
-      <c r="F414" s="410"/>
-      <c r="G414" s="410"/>
-      <c r="H414" s="410"/>
-      <c r="I414" s="410"/>
-      <c r="J414" s="410"/>
-      <c r="K414" s="410"/>
-      <c r="L414" s="410"/>
-      <c r="M414" s="410"/>
-      <c r="N414" s="410"/>
-      <c r="O414" s="410"/>
+      <c r="B414" s="413"/>
+      <c r="C414" s="413"/>
+      <c r="D414" s="413"/>
+      <c r="E414" s="413"/>
+      <c r="F414" s="413"/>
+      <c r="G414" s="413"/>
+      <c r="H414" s="413"/>
+      <c r="I414" s="413"/>
+      <c r="J414" s="413"/>
+      <c r="K414" s="413"/>
+      <c r="L414" s="413"/>
+      <c r="M414" s="413"/>
+      <c r="N414" s="413"/>
+      <c r="O414" s="413"/>
       <c r="P414" s="382"/>
       <c r="Q414" s="152"/>
       <c r="R414" s="152"/>
@@ -25760,18 +26178,28 @@
       <c r="Y424" s="154"/>
       <c r="Z424" s="154"/>
     </row>
-    <row r="425" spans="1:26" s="153" customFormat="1">
-      <c r="A425" s="172"/>
+    <row r="425" spans="1:26" s="153" customFormat="1" ht="46.8">
+      <c r="A425" s="172" t="s">
+        <v>686</v>
+      </c>
       <c r="B425" s="172"/>
-      <c r="C425" s="190"/>
-      <c r="D425" s="290"/>
+      <c r="C425" s="312" t="s">
+        <v>955</v>
+      </c>
+      <c r="D425" s="290" t="s">
+        <v>956</v>
+      </c>
       <c r="E425" s="191"/>
       <c r="F425" s="291"/>
-      <c r="G425" s="189"/>
+      <c r="G425" s="315">
+        <v>139.99</v>
+      </c>
       <c r="H425" s="241"/>
       <c r="I425" s="242"/>
-      <c r="J425" s="199"/>
-      <c r="K425" s="219"/>
+      <c r="J425" s="199">
+        <v>139.99</v>
+      </c>
+      <c r="K425" s="335"/>
       <c r="L425" s="223"/>
       <c r="M425" s="240"/>
       <c r="N425" s="236"/>
@@ -39219,6 +39647,7 @@
     <mergeCell ref="A160:O160"/>
     <mergeCell ref="A194:O194"/>
   </mergeCells>
+  <phoneticPr fontId="123" type="noConversion"/>
   <conditionalFormatting sqref="P36:P41">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
@@ -39253,23 +39682,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="412" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="409"/>
-      <c r="G1" s="409"/>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
+      <c r="J1" s="412"/>
+      <c r="K1" s="412"/>
+      <c r="L1" s="412"/>
+      <c r="M1" s="412"/>
+      <c r="N1" s="412"/>
+      <c r="O1" s="412"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="184" t="s">
@@ -39712,10 +40141,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="486"/>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
+      <c r="A1" s="489"/>
+      <c r="B1" s="489"/>
+      <c r="C1" s="489"/>
+      <c r="D1" s="489"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -39735,22 +40164,22 @@
       <c r="U1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="24">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="487"/>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
-      <c r="M2" s="487"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="487"/>
-      <c r="P2" s="487"/>
+      <c r="A2" s="489"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="490"/>
+      <c r="F2" s="490"/>
+      <c r="G2" s="490"/>
+      <c r="H2" s="490"/>
+      <c r="I2" s="490"/>
+      <c r="J2" s="490"/>
+      <c r="K2" s="490"/>
+      <c r="L2" s="490"/>
+      <c r="M2" s="490"/>
+      <c r="N2" s="490"/>
+      <c r="O2" s="490"/>
+      <c r="P2" s="490"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -39758,22 +40187,22 @@
       <c r="U2" s="6"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="486"/>
-      <c r="B3" s="486"/>
-      <c r="C3" s="486"/>
-      <c r="D3" s="486"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="488"/>
-      <c r="G3" s="488"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="488"/>
-      <c r="K3" s="488"/>
-      <c r="L3" s="488"/>
-      <c r="M3" s="488"/>
-      <c r="N3" s="488"/>
-      <c r="O3" s="488"/>
-      <c r="P3" s="488"/>
+      <c r="A3" s="489"/>
+      <c r="B3" s="489"/>
+      <c r="C3" s="489"/>
+      <c r="D3" s="489"/>
+      <c r="E3" s="491"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="491"/>
+      <c r="H3" s="491"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="491"/>
+      <c r="K3" s="491"/>
+      <c r="L3" s="491"/>
+      <c r="M3" s="491"/>
+      <c r="N3" s="491"/>
+      <c r="O3" s="491"/>
+      <c r="P3" s="491"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -39781,20 +40210,20 @@
       <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="486"/>
-      <c r="B4" s="486"/>
-      <c r="C4" s="486"/>
-      <c r="D4" s="486"/>
-      <c r="E4" s="489"/>
-      <c r="F4" s="489"/>
-      <c r="G4" s="489"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
-      <c r="J4" s="489"/>
-      <c r="K4" s="489"/>
-      <c r="L4" s="489"/>
-      <c r="M4" s="489"/>
-      <c r="N4" s="489"/>
+      <c r="A4" s="489"/>
+      <c r="B4" s="489"/>
+      <c r="C4" s="489"/>
+      <c r="D4" s="489"/>
+      <c r="E4" s="492"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="492"/>
+      <c r="H4" s="492"/>
+      <c r="I4" s="492"/>
+      <c r="J4" s="492"/>
+      <c r="K4" s="492"/>
+      <c r="L4" s="492"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
       <c r="O4" s="8"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -39804,17 +40233,17 @@
       <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="490" t="s">
+      <c r="A5" s="493" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="491"/>
-      <c r="C5" s="491"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="491"/>
-      <c r="F5" s="491"/>
-      <c r="G5" s="491"/>
-      <c r="H5" s="491"/>
-      <c r="I5" s="491"/>
+      <c r="B5" s="494"/>
+      <c r="C5" s="494"/>
+      <c r="D5" s="494"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="494"/>
+      <c r="I5" s="494"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -39834,23 +40263,23 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="483">
+      <c r="D6" s="486">
         <f ca="1">TODAY()</f>
-        <v>45882</v>
-      </c>
-      <c r="E6" s="483"/>
-      <c r="F6" s="483"/>
-      <c r="G6" s="483"/>
-      <c r="H6" s="483"/>
-      <c r="I6" s="483"/>
+        <v>45884</v>
+      </c>
+      <c r="E6" s="486"/>
+      <c r="F6" s="486"/>
+      <c r="G6" s="486"/>
+      <c r="H6" s="486"/>
+      <c r="I6" s="486"/>
       <c r="J6" s="13"/>
       <c r="K6" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="L6" s="484"/>
-      <c r="M6" s="484"/>
-      <c r="N6" s="484"/>
-      <c r="O6" s="485"/>
+      <c r="L6" s="487"/>
+      <c r="M6" s="487"/>
+      <c r="N6" s="487"/>
+      <c r="O6" s="488"/>
       <c r="P6" s="15" t="s">
         <v>175</v>
       </c>
@@ -39866,15 +40295,15 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="474" t="str">
+      <c r="D7" s="477" t="str">
         <f>IF('[1]Dealer Profile'!B8="","",'[1]Dealer Profile'!B8)</f>
         <v/>
       </c>
-      <c r="E7" s="474"/>
-      <c r="F7" s="474"/>
-      <c r="G7" s="474"/>
-      <c r="H7" s="474"/>
-      <c r="I7" s="474"/>
+      <c r="E7" s="477"/>
+      <c r="F7" s="477"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
       <c r="J7" s="22"/>
       <c r="K7" s="20" t="s">
         <v>177</v>
@@ -39901,15 +40330,15 @@
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="475" t="str">
+      <c r="D8" s="478" t="str">
         <f>IF('[1]Dealer Profile'!B10="","",'[1]Dealer Profile'!B10)</f>
         <v/>
       </c>
-      <c r="E8" s="475"/>
-      <c r="F8" s="475"/>
-      <c r="G8" s="475"/>
-      <c r="H8" s="475"/>
-      <c r="I8" s="475"/>
+      <c r="E8" s="478"/>
+      <c r="F8" s="478"/>
+      <c r="G8" s="478"/>
+      <c r="H8" s="478"/>
+      <c r="I8" s="478"/>
       <c r="J8" s="22"/>
       <c r="K8" s="20" t="s">
         <v>180</v>
@@ -39935,11 +40364,11 @@
         <v>182</v>
       </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="476" t="str">
+      <c r="C9" s="479" t="str">
         <f>IF('[1]Dealer Profile'!B11="","",'[1]Dealer Profile'!B11)</f>
         <v/>
       </c>
-      <c r="D9" s="476"/>
+      <c r="D9" s="479"/>
       <c r="E9" s="33" t="s">
         <v>183</v>
       </c>
@@ -39959,10 +40388,10 @@
       <c r="K9" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="L9" s="478"/>
-      <c r="M9" s="478"/>
-      <c r="N9" s="478"/>
-      <c r="O9" s="479"/>
+      <c r="L9" s="481"/>
+      <c r="M9" s="481"/>
+      <c r="N9" s="481"/>
+      <c r="O9" s="482"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="38"/>
@@ -39976,23 +40405,23 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="480" t="str">
+      <c r="D10" s="483" t="str">
         <f>IF('[1]Dealer Profile'!B15="","",'[1]Dealer Profile'!B15)</f>
         <v/>
       </c>
-      <c r="E10" s="477"/>
-      <c r="F10" s="480"/>
-      <c r="G10" s="477"/>
-      <c r="H10" s="477"/>
-      <c r="I10" s="480"/>
+      <c r="E10" s="480"/>
+      <c r="F10" s="483"/>
+      <c r="G10" s="480"/>
+      <c r="H10" s="480"/>
+      <c r="I10" s="483"/>
       <c r="J10" s="22"/>
       <c r="K10" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="481"/>
-      <c r="M10" s="481"/>
-      <c r="N10" s="481"/>
-      <c r="O10" s="482"/>
+      <c r="L10" s="484"/>
+      <c r="M10" s="484"/>
+      <c r="N10" s="484"/>
+      <c r="O10" s="485"/>
       <c r="P10" s="40"/>
       <c r="Q10" s="41"/>
       <c r="R10" s="42"/>
@@ -40006,23 +40435,23 @@
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="477" t="str">
+      <c r="D11" s="480" t="str">
         <f>IF('[1]Dealer Profile'!B17="","",'[1]Dealer Profile'!B17)</f>
         <v/>
       </c>
-      <c r="E11" s="477"/>
-      <c r="F11" s="477"/>
-      <c r="G11" s="477"/>
-      <c r="H11" s="477"/>
-      <c r="I11" s="477"/>
+      <c r="E11" s="480"/>
+      <c r="F11" s="480"/>
+      <c r="G11" s="480"/>
+      <c r="H11" s="480"/>
+      <c r="I11" s="480"/>
       <c r="J11" s="22"/>
       <c r="K11" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="L11" s="481"/>
-      <c r="M11" s="481"/>
-      <c r="N11" s="481"/>
-      <c r="O11" s="481"/>
+      <c r="L11" s="484"/>
+      <c r="M11" s="484"/>
+      <c r="N11" s="484"/>
+      <c r="O11" s="484"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -40046,8 +40475,8 @@
       </c>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="470"/>
-      <c r="O12" s="470"/>
+      <c r="N12" s="473"/>
+      <c r="O12" s="473"/>
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
@@ -40455,18 +40884,18 @@
       <c r="U29" s="63"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="461" t="s">
+      <c r="A30" s="464" t="s">
         <v>195</v>
       </c>
-      <c r="B30" s="463"/>
+      <c r="B30" s="466"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="464" t="s">
+      <c r="D30" s="467" t="s">
         <v>196</v>
       </c>
-      <c r="E30" s="462"/>
-      <c r="F30" s="462"/>
-      <c r="G30" s="462"/>
-      <c r="H30" s="462"/>
+      <c r="E30" s="465"/>
+      <c r="F30" s="465"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="465"/>
       <c r="I30" s="65">
         <v>1400</v>
       </c>
@@ -40490,18 +40919,18 @@
       <c r="U30" s="68"/>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="457" t="s">
+      <c r="A31" s="460" t="s">
         <v>199</v>
       </c>
-      <c r="B31" s="458"/>
+      <c r="B31" s="461"/>
       <c r="C31" s="64"/>
-      <c r="D31" s="459" t="s">
+      <c r="D31" s="462" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="460"/>
-      <c r="F31" s="460"/>
-      <c r="G31" s="460"/>
-      <c r="H31" s="460"/>
+      <c r="E31" s="463"/>
+      <c r="F31" s="463"/>
+      <c r="G31" s="463"/>
+      <c r="H31" s="463"/>
       <c r="I31" s="69">
         <v>1200</v>
       </c>
@@ -40525,18 +40954,18 @@
       <c r="U31" s="112"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="461" t="s">
+      <c r="A32" s="464" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="463"/>
+      <c r="B32" s="466"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="464" t="s">
+      <c r="D32" s="467" t="s">
         <v>204</v>
       </c>
-      <c r="E32" s="462"/>
-      <c r="F32" s="462"/>
-      <c r="G32" s="462"/>
-      <c r="H32" s="462"/>
+      <c r="E32" s="465"/>
+      <c r="F32" s="465"/>
+      <c r="G32" s="465"/>
+      <c r="H32" s="465"/>
       <c r="I32" s="65">
         <v>450</v>
       </c>
@@ -40560,18 +40989,18 @@
       <c r="U32" s="68"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="457" t="s">
+      <c r="A33" s="460" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="458"/>
+      <c r="B33" s="461"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="473" t="s">
+      <c r="D33" s="476" t="s">
         <v>208</v>
       </c>
-      <c r="E33" s="467"/>
-      <c r="F33" s="467"/>
-      <c r="G33" s="467"/>
-      <c r="H33" s="467"/>
+      <c r="E33" s="470"/>
+      <c r="F33" s="470"/>
+      <c r="G33" s="470"/>
+      <c r="H33" s="470"/>
       <c r="I33" s="69">
         <v>400</v>
       </c>
@@ -40591,18 +41020,18 @@
       <c r="U33" s="66"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="461" t="s">
+      <c r="A34" s="464" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="461"/>
+      <c r="B34" s="464"/>
       <c r="C34" s="64"/>
-      <c r="D34" s="462" t="s">
+      <c r="D34" s="465" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="462"/>
-      <c r="F34" s="462"/>
-      <c r="G34" s="462"/>
-      <c r="H34" s="462"/>
+      <c r="E34" s="465"/>
+      <c r="F34" s="465"/>
+      <c r="G34" s="465"/>
+      <c r="H34" s="465"/>
       <c r="I34" s="65">
         <v>1200</v>
       </c>
@@ -40626,18 +41055,18 @@
       <c r="U34" s="68"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="457" t="s">
+      <c r="A35" s="460" t="s">
         <v>214</v>
       </c>
-      <c r="B35" s="458"/>
+      <c r="B35" s="461"/>
       <c r="C35" s="73"/>
-      <c r="D35" s="460" t="s">
+      <c r="D35" s="463" t="s">
         <v>215</v>
       </c>
-      <c r="E35" s="460"/>
-      <c r="F35" s="460"/>
-      <c r="G35" s="460"/>
-      <c r="H35" s="460"/>
+      <c r="E35" s="463"/>
+      <c r="F35" s="463"/>
+      <c r="G35" s="463"/>
+      <c r="H35" s="463"/>
       <c r="I35" s="69">
         <v>1200</v>
       </c>
@@ -40661,18 +41090,18 @@
       <c r="U35" s="112"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="461" t="s">
+      <c r="A36" s="464" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="461"/>
+      <c r="B36" s="464"/>
       <c r="C36" s="74"/>
-      <c r="D36" s="462" t="s">
+      <c r="D36" s="465" t="s">
         <v>219</v>
       </c>
-      <c r="E36" s="462"/>
-      <c r="F36" s="462"/>
-      <c r="G36" s="462"/>
-      <c r="H36" s="462"/>
+      <c r="E36" s="465"/>
+      <c r="F36" s="465"/>
+      <c r="G36" s="465"/>
+      <c r="H36" s="465"/>
       <c r="I36" s="65">
         <v>3199</v>
       </c>
@@ -40681,25 +41110,25 @@
         <v>220</v>
       </c>
       <c r="L36" s="64"/>
-      <c r="M36" s="471" t="s">
+      <c r="M36" s="474" t="s">
         <v>221</v>
       </c>
-      <c r="N36" s="472"/>
-      <c r="O36" s="472"/>
-      <c r="P36" s="472"/>
-      <c r="Q36" s="472"/>
-      <c r="R36" s="472"/>
-      <c r="S36" s="472"/>
+      <c r="N36" s="475"/>
+      <c r="O36" s="475"/>
+      <c r="P36" s="475"/>
+      <c r="Q36" s="475"/>
+      <c r="R36" s="475"/>
+      <c r="S36" s="475"/>
       <c r="T36" s="113">
         <v>9995</v>
       </c>
       <c r="U36" s="68"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="457" t="s">
+      <c r="A37" s="460" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="457"/>
+      <c r="B37" s="460"/>
       <c r="C37" s="75"/>
       <c r="D37" s="63" t="s">
         <v>223</v>
@@ -40716,25 +41145,25 @@
         <v>224</v>
       </c>
       <c r="L37" s="77"/>
-      <c r="M37" s="469" t="s">
+      <c r="M37" s="472" t="s">
         <v>225</v>
       </c>
-      <c r="N37" s="460"/>
-      <c r="O37" s="460"/>
-      <c r="P37" s="460"/>
-      <c r="Q37" s="460"/>
-      <c r="R37" s="460"/>
-      <c r="S37" s="460"/>
+      <c r="N37" s="463"/>
+      <c r="O37" s="463"/>
+      <c r="P37" s="463"/>
+      <c r="Q37" s="463"/>
+      <c r="R37" s="463"/>
+      <c r="S37" s="463"/>
       <c r="T37" s="69">
         <v>1500</v>
       </c>
       <c r="U37" s="78"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="461" t="s">
+      <c r="A38" s="464" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="461"/>
+      <c r="B38" s="464"/>
       <c r="C38" s="75"/>
       <c r="D38" s="53" t="s">
         <v>227</v>
@@ -40749,52 +41178,52 @@
       <c r="J38" s="66"/>
       <c r="K38" s="70"/>
       <c r="L38" s="80"/>
-      <c r="M38" s="465"/>
-      <c r="N38" s="460"/>
-      <c r="O38" s="460"/>
-      <c r="P38" s="460"/>
-      <c r="Q38" s="460"/>
-      <c r="R38" s="460"/>
-      <c r="S38" s="460"/>
+      <c r="M38" s="468"/>
+      <c r="N38" s="463"/>
+      <c r="O38" s="463"/>
+      <c r="P38" s="463"/>
+      <c r="Q38" s="463"/>
+      <c r="R38" s="463"/>
+      <c r="S38" s="463"/>
       <c r="T38" s="69"/>
       <c r="U38" s="112"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="466"/>
-      <c r="B39" s="466"/>
+      <c r="A39" s="469"/>
+      <c r="B39" s="469"/>
       <c r="C39" s="81"/>
-      <c r="D39" s="467"/>
-      <c r="E39" s="467"/>
-      <c r="F39" s="467"/>
-      <c r="G39" s="467"/>
-      <c r="H39" s="467"/>
+      <c r="D39" s="470"/>
+      <c r="E39" s="470"/>
+      <c r="F39" s="470"/>
+      <c r="G39" s="470"/>
+      <c r="H39" s="470"/>
       <c r="I39" s="69"/>
       <c r="J39" s="66"/>
       <c r="K39" s="70"/>
       <c r="L39" s="82"/>
-      <c r="M39" s="468"/>
-      <c r="N39" s="468"/>
-      <c r="O39" s="468"/>
-      <c r="P39" s="468"/>
-      <c r="Q39" s="468"/>
-      <c r="R39" s="468"/>
+      <c r="M39" s="471"/>
+      <c r="N39" s="471"/>
+      <c r="O39" s="471"/>
+      <c r="P39" s="471"/>
+      <c r="Q39" s="471"/>
+      <c r="R39" s="471"/>
       <c r="S39" s="114"/>
       <c r="T39" s="69"/>
       <c r="U39" s="49"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="461" t="s">
+      <c r="A40" s="464" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="463"/>
+      <c r="B40" s="466"/>
       <c r="C40" s="77"/>
-      <c r="D40" s="464" t="s">
+      <c r="D40" s="467" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="462"/>
-      <c r="F40" s="462"/>
-      <c r="G40" s="462"/>
-      <c r="H40" s="462"/>
+      <c r="E40" s="465"/>
+      <c r="F40" s="465"/>
+      <c r="G40" s="465"/>
+      <c r="H40" s="465"/>
       <c r="I40" s="65">
         <v>100</v>
       </c>
@@ -40812,18 +41241,18 @@
       <c r="U40" s="84"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="457" t="s">
+      <c r="A41" s="460" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="458"/>
+      <c r="B41" s="461"/>
       <c r="C41" s="64"/>
-      <c r="D41" s="459" t="s">
+      <c r="D41" s="462" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="460"/>
-      <c r="F41" s="460"/>
-      <c r="G41" s="460"/>
-      <c r="H41" s="460"/>
+      <c r="E41" s="463"/>
+      <c r="F41" s="463"/>
+      <c r="G41" s="463"/>
+      <c r="H41" s="463"/>
       <c r="I41" s="69">
         <v>400</v>
       </c>
@@ -40841,18 +41270,18 @@
       <c r="U41" s="115"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="461" t="s">
+      <c r="A42" s="464" t="s">
         <v>232</v>
       </c>
-      <c r="B42" s="463"/>
+      <c r="B42" s="466"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="464" t="s">
+      <c r="D42" s="467" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="462"/>
-      <c r="F42" s="462"/>
-      <c r="G42" s="462"/>
-      <c r="H42" s="462"/>
+      <c r="E42" s="465"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
       <c r="I42" s="65">
         <v>500</v>
       </c>
@@ -40870,18 +41299,18 @@
       <c r="U42" s="115"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="457" t="s">
+      <c r="A43" s="460" t="s">
         <v>234</v>
       </c>
-      <c r="B43" s="458"/>
+      <c r="B43" s="461"/>
       <c r="C43" s="73"/>
-      <c r="D43" s="459" t="s">
+      <c r="D43" s="462" t="s">
         <v>235</v>
       </c>
-      <c r="E43" s="460"/>
-      <c r="F43" s="460"/>
-      <c r="G43" s="460"/>
-      <c r="H43" s="460"/>
+      <c r="E43" s="463"/>
+      <c r="F43" s="463"/>
+      <c r="G43" s="463"/>
+      <c r="H43" s="463"/>
       <c r="I43" s="69">
         <v>200</v>
       </c>
@@ -40899,18 +41328,18 @@
       <c r="U43" s="115"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="461" t="s">
+      <c r="A44" s="464" t="s">
         <v>236</v>
       </c>
-      <c r="B44" s="461"/>
+      <c r="B44" s="464"/>
       <c r="C44" s="74"/>
-      <c r="D44" s="462" t="s">
+      <c r="D44" s="465" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="462"/>
-      <c r="F44" s="462"/>
-      <c r="G44" s="462"/>
-      <c r="H44" s="462"/>
+      <c r="E44" s="465"/>
+      <c r="F44" s="465"/>
+      <c r="G44" s="465"/>
+      <c r="H44" s="465"/>
       <c r="I44" s="65">
         <v>200</v>
       </c>
@@ -40928,18 +41357,18 @@
       <c r="U44" s="115"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="457" t="s">
+      <c r="A45" s="460" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="457"/>
+      <c r="B45" s="460"/>
       <c r="C45" s="74"/>
-      <c r="D45" s="457" t="s">
+      <c r="D45" s="460" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="457"/>
-      <c r="F45" s="457"/>
-      <c r="G45" s="457"/>
-      <c r="H45" s="457"/>
+      <c r="E45" s="460"/>
+      <c r="F45" s="460"/>
+      <c r="G45" s="460"/>
+      <c r="H45" s="460"/>
       <c r="I45" s="85">
         <v>1500</v>
       </c>
@@ -41028,138 +41457,138 @@
       <c r="U48" s="91"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="445" t="s">
+      <c r="A49" s="448" t="s">
         <v>241</v>
       </c>
       <c r="B49" s="95"/>
-      <c r="C49" s="453"/>
-      <c r="D49" s="453"/>
-      <c r="E49" s="453"/>
-      <c r="F49" s="453"/>
-      <c r="G49" s="453"/>
-      <c r="H49" s="453"/>
-      <c r="I49" s="453"/>
-      <c r="J49" s="454"/>
-      <c r="K49" s="455"/>
-      <c r="L49" s="456"/>
-      <c r="M49" s="456"/>
+      <c r="C49" s="456"/>
+      <c r="D49" s="456"/>
+      <c r="E49" s="456"/>
+      <c r="F49" s="456"/>
+      <c r="G49" s="456"/>
+      <c r="H49" s="456"/>
+      <c r="I49" s="456"/>
+      <c r="J49" s="457"/>
+      <c r="K49" s="458"/>
+      <c r="L49" s="459"/>
+      <c r="M49" s="459"/>
       <c r="N49" s="96"/>
-      <c r="O49" s="449" t="s">
+      <c r="O49" s="452" t="s">
         <v>242</v>
       </c>
-      <c r="P49" s="449"/>
-      <c r="Q49" s="448">
+      <c r="P49" s="452"/>
+      <c r="Q49" s="451">
         <v>10995</v>
       </c>
-      <c r="R49" s="448"/>
-      <c r="S49" s="448"/>
-      <c r="T49" s="448"/>
+      <c r="R49" s="451"/>
+      <c r="S49" s="451"/>
+      <c r="T49" s="451"/>
       <c r="U49" s="97"/>
     </row>
     <row r="50" spans="1:21" ht="16.2">
-      <c r="A50" s="446"/>
+      <c r="A50" s="449"/>
       <c r="B50" s="98"/>
-      <c r="C50" s="431"/>
-      <c r="D50" s="431"/>
-      <c r="E50" s="431"/>
-      <c r="F50" s="431"/>
-      <c r="G50" s="431"/>
-      <c r="H50" s="431"/>
-      <c r="I50" s="431"/>
-      <c r="J50" s="432"/>
-      <c r="K50" s="425"/>
-      <c r="L50" s="426"/>
-      <c r="M50" s="426"/>
+      <c r="C50" s="434"/>
+      <c r="D50" s="434"/>
+      <c r="E50" s="434"/>
+      <c r="F50" s="434"/>
+      <c r="G50" s="434"/>
+      <c r="H50" s="434"/>
+      <c r="I50" s="434"/>
+      <c r="J50" s="435"/>
+      <c r="K50" s="428"/>
+      <c r="L50" s="429"/>
+      <c r="M50" s="429"/>
       <c r="N50" s="99"/>
-      <c r="O50" s="449" t="s">
+      <c r="O50" s="452" t="s">
         <v>243</v>
       </c>
-      <c r="P50" s="449"/>
-      <c r="Q50" s="450" t="b">
+      <c r="P50" s="452"/>
+      <c r="Q50" s="453" t="b">
         <f>'JEEP PACKAGE'!H25=SUMIF(C30:C46,"x",I30:I46)+SUMIF(L30:L40,"x",T30:T40)+SUM(K49:M53)</f>
         <v>1</v>
       </c>
-      <c r="R50" s="451"/>
-      <c r="S50" s="451"/>
-      <c r="T50" s="452"/>
+      <c r="R50" s="454"/>
+      <c r="S50" s="454"/>
+      <c r="T50" s="455"/>
       <c r="U50" s="97"/>
     </row>
     <row r="51" spans="1:21" ht="16.8" thickBot="1">
-      <c r="A51" s="446"/>
+      <c r="A51" s="449"/>
       <c r="B51" s="98"/>
-      <c r="C51" s="431"/>
-      <c r="D51" s="431"/>
-      <c r="E51" s="431"/>
-      <c r="F51" s="431"/>
-      <c r="G51" s="431"/>
-      <c r="H51" s="431"/>
-      <c r="I51" s="431"/>
-      <c r="J51" s="432"/>
-      <c r="K51" s="425"/>
-      <c r="L51" s="426"/>
-      <c r="M51" s="426"/>
+      <c r="C51" s="434"/>
+      <c r="D51" s="434"/>
+      <c r="E51" s="434"/>
+      <c r="F51" s="434"/>
+      <c r="G51" s="434"/>
+      <c r="H51" s="434"/>
+      <c r="I51" s="434"/>
+      <c r="J51" s="435"/>
+      <c r="K51" s="428"/>
+      <c r="L51" s="429"/>
+      <c r="M51" s="429"/>
       <c r="N51" s="99"/>
-      <c r="O51" s="427" t="s">
+      <c r="O51" s="430" t="s">
         <v>244</v>
       </c>
-      <c r="P51" s="427"/>
-      <c r="Q51" s="428">
+      <c r="P51" s="430"/>
+      <c r="Q51" s="431">
         <v>0</v>
       </c>
-      <c r="R51" s="429"/>
-      <c r="S51" s="429"/>
-      <c r="T51" s="430"/>
+      <c r="R51" s="432"/>
+      <c r="S51" s="432"/>
+      <c r="T51" s="433"/>
       <c r="U51" s="100"/>
     </row>
     <row r="52" spans="1:21" ht="17.399999999999999">
-      <c r="A52" s="446"/>
+      <c r="A52" s="449"/>
       <c r="B52" s="98"/>
-      <c r="C52" s="431"/>
-      <c r="D52" s="431"/>
-      <c r="E52" s="431"/>
-      <c r="F52" s="431"/>
-      <c r="G52" s="431"/>
-      <c r="H52" s="431"/>
-      <c r="I52" s="431"/>
-      <c r="J52" s="432"/>
-      <c r="K52" s="425"/>
-      <c r="L52" s="426"/>
-      <c r="M52" s="426"/>
+      <c r="C52" s="434"/>
+      <c r="D52" s="434"/>
+      <c r="E52" s="434"/>
+      <c r="F52" s="434"/>
+      <c r="G52" s="434"/>
+      <c r="H52" s="434"/>
+      <c r="I52" s="434"/>
+      <c r="J52" s="435"/>
+      <c r="K52" s="428"/>
+      <c r="L52" s="429"/>
+      <c r="M52" s="429"/>
       <c r="N52" s="101"/>
-      <c r="O52" s="433" t="s">
+      <c r="O52" s="436" t="s">
         <v>245</v>
       </c>
-      <c r="P52" s="434"/>
-      <c r="Q52" s="437">
+      <c r="P52" s="437"/>
+      <c r="Q52" s="440">
         <f>SUM(Q49,Q50,Q51)</f>
         <v>10995</v>
       </c>
-      <c r="R52" s="437"/>
-      <c r="S52" s="437"/>
-      <c r="T52" s="438"/>
+      <c r="R52" s="440"/>
+      <c r="S52" s="440"/>
+      <c r="T52" s="441"/>
       <c r="U52" s="102"/>
     </row>
     <row r="53" spans="1:21" ht="18" thickBot="1">
-      <c r="A53" s="447"/>
+      <c r="A53" s="450"/>
       <c r="B53" s="103"/>
-      <c r="C53" s="441"/>
-      <c r="D53" s="441"/>
-      <c r="E53" s="441"/>
-      <c r="F53" s="441"/>
-      <c r="G53" s="441"/>
-      <c r="H53" s="441"/>
-      <c r="I53" s="441"/>
-      <c r="J53" s="442"/>
-      <c r="K53" s="443"/>
-      <c r="L53" s="444"/>
-      <c r="M53" s="444"/>
+      <c r="C53" s="444"/>
+      <c r="D53" s="444"/>
+      <c r="E53" s="444"/>
+      <c r="F53" s="444"/>
+      <c r="G53" s="444"/>
+      <c r="H53" s="444"/>
+      <c r="I53" s="444"/>
+      <c r="J53" s="445"/>
+      <c r="K53" s="446"/>
+      <c r="L53" s="447"/>
+      <c r="M53" s="447"/>
       <c r="N53" s="101"/>
-      <c r="O53" s="435"/>
-      <c r="P53" s="436"/>
-      <c r="Q53" s="439"/>
-      <c r="R53" s="439"/>
-      <c r="S53" s="439"/>
-      <c r="T53" s="440"/>
+      <c r="O53" s="438"/>
+      <c r="P53" s="439"/>
+      <c r="Q53" s="442"/>
+      <c r="R53" s="442"/>
+      <c r="S53" s="442"/>
+      <c r="T53" s="443"/>
       <c r="U53" s="102"/>
     </row>
     <row r="54" spans="1:21">
@@ -41278,12 +41707,12 @@
       <c r="U58" s="107"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="424" t="s">
+      <c r="A59" s="427" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="424"/>
-      <c r="C59" s="424"/>
-      <c r="D59" s="424"/>
+      <c r="B59" s="427"/>
+      <c r="C59" s="427"/>
+      <c r="D59" s="427"/>
       <c r="E59" s="108"/>
       <c r="F59" s="108"/>
       <c r="G59" s="108"/>
